--- a/src/CAPEX_HEURISTICS.xlsx
+++ b/src/CAPEX_HEURISTICS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inl-my.sharepoint.com/personal/juan_gallegocalderon_inl_gov/Documents/code/aqua-pv/app/API_backend/API_CAPEX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inl-my.sharepoint.com/personal/tyler_phillips_inl_gov/Documents/Desktop/aqua-pv/app/API_backend/API_CAPEX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8D7E22A6-14CE-4633-8ED9-40E1D347DBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D11308F4-E46E-134F-BF77-EAB05CA90B85}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{8D7E22A6-14CE-4633-8ED9-40E1D347DBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{766E3613-78E5-CB43-AB37-B3A7FAF4B774}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21360" activeTab="1" xr2:uid="{6DAB8058-119E-4715-9E59-0254F8A7D454}"/>
+    <workbookView xWindow="420" yWindow="980" windowWidth="33380" windowHeight="19900" xr2:uid="{6DAB8058-119E-4715-9E59-0254F8A7D454}"/>
   </bookViews>
   <sheets>
     <sheet name="Anchoring" sheetId="7" r:id="rId1"/>
@@ -125,11 +125,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -698,15 +699,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="81">
     <cellStyle name="20% - Accent1" xfId="58" builtinId="30" customBuiltin="1"/>
@@ -1241,11 +1244,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98866148-CC1A-47D5-957B-F2FD6E57C93E}">
   <dimension ref="A1:ATE6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:ATE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12073,7 +12076,7 @@
     </row>
     <row r="5" spans="1:1201">
       <c r="A5" s="1">
-        <v>45356.598356481481</v>
+        <v>45687</v>
       </c>
     </row>
     <row r="6" spans="1:1201">
@@ -12081,3604 +12084,3604 @@
         <v>22</v>
       </c>
       <c r="B6">
-        <v>2.0199999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C6">
-        <v>4.58E-2</v>
+        <v>4.82E-2</v>
       </c>
       <c r="D6">
-        <v>5.6500000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E6">
-        <v>2.0199999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F6">
-        <v>4.58E-2</v>
+        <v>4.82E-2</v>
       </c>
       <c r="G6">
-        <v>5.6500000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H6">
-        <v>2.0199999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="I6">
-        <v>4.58E-2</v>
+        <v>4.82E-2</v>
       </c>
       <c r="J6">
-        <v>5.6500000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K6">
-        <v>2.0199999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="L6">
-        <v>4.58E-2</v>
+        <v>4.82E-2</v>
       </c>
       <c r="M6">
-        <v>5.6500000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="N6">
-        <v>1.8599999999999998E-2</v>
+        <v>0.02</v>
       </c>
       <c r="O6">
-        <v>4.4200000000000003E-2</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="P6">
-        <v>5.5399999999999998E-2</v>
+        <v>5.6399999999999999E-2</v>
       </c>
       <c r="Q6">
-        <v>1.8599999999999998E-2</v>
+        <v>0.02</v>
       </c>
       <c r="R6">
-        <v>4.4200000000000003E-2</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="S6">
-        <v>5.5399999999999998E-2</v>
+        <v>5.6399999999999999E-2</v>
       </c>
       <c r="T6">
-        <v>1.8599999999999998E-2</v>
+        <v>0.02</v>
       </c>
       <c r="U6">
-        <v>4.4200000000000003E-2</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="V6">
-        <v>5.5399999999999998E-2</v>
+        <v>5.6399999999999999E-2</v>
       </c>
       <c r="W6">
-        <v>1.8599999999999998E-2</v>
+        <v>0.02</v>
       </c>
       <c r="X6">
-        <v>4.4200000000000003E-2</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="Y6">
-        <v>5.5399999999999998E-2</v>
-      </c>
-      <c r="Z6">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="Z6" s="6">
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="AA6">
-        <v>4.3700000000000003E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="AB6">
-        <v>5.5E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="AC6">
-        <v>1.8800000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AD6">
-        <v>4.3700000000000003E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="AE6">
-        <v>5.5E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="AF6">
-        <v>1.8800000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AG6">
-        <v>4.3700000000000003E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="AH6">
-        <v>5.5E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="AI6">
-        <v>1.8800000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AJ6">
-        <v>4.3700000000000003E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="AK6">
-        <v>5.5E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="AL6">
-        <v>1.8599999999999998E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AM6">
-        <v>4.3400000000000001E-2</v>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="AN6">
-        <v>5.4100000000000002E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="AO6">
-        <v>1.8599999999999998E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AP6">
-        <v>4.3400000000000001E-2</v>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="AQ6">
-        <v>5.4100000000000002E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="AR6">
-        <v>1.8599999999999998E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AS6">
-        <v>4.3400000000000001E-2</v>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="AT6">
-        <v>5.4100000000000002E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="AU6">
-        <v>1.8599999999999998E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AV6">
-        <v>4.3400000000000001E-2</v>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="AW6">
-        <v>5.4100000000000002E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="AX6">
-        <v>1.83E-2</v>
+        <v>1.8450000000000001E-2</v>
       </c>
       <c r="AY6">
-        <v>4.3200000000000002E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="AZ6">
-        <v>5.3699999999999998E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="BA6">
-        <v>1.83E-2</v>
+        <v>1.8450000000000001E-2</v>
       </c>
       <c r="BB6">
-        <v>4.3200000000000002E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="BC6">
-        <v>5.3699999999999998E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="BD6">
-        <v>1.83E-2</v>
+        <v>1.8450000000000001E-2</v>
       </c>
       <c r="BE6">
-        <v>4.3200000000000002E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="BF6">
-        <v>5.3699999999999998E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="BG6">
-        <v>1.83E-2</v>
+        <v>1.8450000000000001E-2</v>
       </c>
       <c r="BH6">
-        <v>4.3200000000000002E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="BI6">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="BJ6">
-        <v>0.04</v>
-      </c>
-      <c r="BK6">
-        <v>0.04</v>
-      </c>
-      <c r="BL6">
-        <v>0.04</v>
-      </c>
-      <c r="BM6">
-        <v>0.04</v>
-      </c>
-      <c r="BN6">
-        <v>0.04</v>
-      </c>
-      <c r="BO6">
-        <v>0.04</v>
-      </c>
-      <c r="BP6">
-        <v>0.04</v>
-      </c>
-      <c r="BQ6">
-        <v>0.04</v>
-      </c>
-      <c r="BR6">
-        <v>0.04</v>
-      </c>
-      <c r="BS6">
-        <v>0.04</v>
-      </c>
-      <c r="BT6">
-        <v>0.04</v>
-      </c>
-      <c r="BU6">
-        <v>0.04</v>
-      </c>
-      <c r="BV6">
-        <v>0.04</v>
-      </c>
-      <c r="BW6">
-        <v>0.04</v>
-      </c>
-      <c r="BX6">
-        <v>0.04</v>
-      </c>
-      <c r="BY6">
-        <v>0.04</v>
-      </c>
-      <c r="BZ6">
-        <v>0.04</v>
-      </c>
-      <c r="CA6">
-        <v>0.04</v>
-      </c>
-      <c r="CB6">
-        <v>0.04</v>
-      </c>
-      <c r="CC6">
-        <v>0.04</v>
-      </c>
-      <c r="CD6">
-        <v>0.04</v>
-      </c>
-      <c r="CE6">
-        <v>0.04</v>
-      </c>
-      <c r="CF6">
-        <v>0.04</v>
-      </c>
-      <c r="CG6">
-        <v>0.04</v>
-      </c>
-      <c r="CH6">
-        <v>0.04</v>
-      </c>
-      <c r="CI6">
-        <v>0.04</v>
-      </c>
-      <c r="CJ6">
-        <v>0.04</v>
-      </c>
-      <c r="CK6">
-        <v>0.04</v>
-      </c>
-      <c r="CL6">
-        <v>0.04</v>
-      </c>
-      <c r="CM6">
-        <v>0.04</v>
-      </c>
-      <c r="CN6">
-        <v>0.04</v>
-      </c>
-      <c r="CO6">
-        <v>0.04</v>
-      </c>
-      <c r="CP6">
-        <v>0.04</v>
-      </c>
-      <c r="CQ6">
-        <v>0.04</v>
-      </c>
-      <c r="CR6">
-        <v>0.04</v>
-      </c>
-      <c r="CS6">
-        <v>0.04</v>
-      </c>
-      <c r="CT6">
-        <v>0.04</v>
-      </c>
-      <c r="CU6">
-        <v>0.04</v>
-      </c>
-      <c r="CV6">
-        <v>0.04</v>
-      </c>
-      <c r="CW6">
-        <v>0.04</v>
-      </c>
-      <c r="CX6">
-        <v>0.04</v>
-      </c>
-      <c r="CY6">
-        <v>0.04</v>
-      </c>
-      <c r="CZ6">
-        <v>0.04</v>
-      </c>
-      <c r="DA6">
-        <v>0.04</v>
-      </c>
-      <c r="DB6">
-        <v>0.04</v>
-      </c>
-      <c r="DC6">
-        <v>0.04</v>
-      </c>
-      <c r="DD6">
-        <v>0.04</v>
-      </c>
-      <c r="DE6">
-        <v>0.04</v>
-      </c>
-      <c r="DF6">
-        <v>0.04</v>
-      </c>
-      <c r="DG6">
-        <v>0.04</v>
-      </c>
-      <c r="DH6">
-        <v>0.04</v>
-      </c>
-      <c r="DI6">
-        <v>0.04</v>
-      </c>
-      <c r="DJ6">
-        <v>0.04</v>
-      </c>
-      <c r="DK6">
-        <v>0.04</v>
-      </c>
-      <c r="DL6">
-        <v>0.04</v>
-      </c>
-      <c r="DM6">
-        <v>0.04</v>
-      </c>
-      <c r="DN6">
-        <v>0.04</v>
-      </c>
-      <c r="DO6">
-        <v>0.04</v>
-      </c>
-      <c r="DP6">
-        <v>0.04</v>
-      </c>
-      <c r="DQ6">
-        <v>0.04</v>
-      </c>
-      <c r="DR6">
-        <v>0.04</v>
-      </c>
-      <c r="DS6">
-        <v>0.04</v>
-      </c>
-      <c r="DT6">
-        <v>0.04</v>
-      </c>
-      <c r="DU6">
-        <v>0.04</v>
-      </c>
-      <c r="DV6">
-        <v>0.04</v>
-      </c>
-      <c r="DW6">
-        <v>0.04</v>
-      </c>
-      <c r="DX6">
-        <v>0.04</v>
-      </c>
-      <c r="DY6">
-        <v>0.04</v>
-      </c>
-      <c r="DZ6">
-        <v>0.04</v>
-      </c>
-      <c r="EA6">
-        <v>0.04</v>
-      </c>
-      <c r="EB6">
-        <v>0.04</v>
-      </c>
-      <c r="EC6">
-        <v>0.04</v>
-      </c>
-      <c r="ED6">
-        <v>0.04</v>
-      </c>
-      <c r="EE6">
-        <v>0.04</v>
-      </c>
-      <c r="EF6">
-        <v>0.04</v>
-      </c>
-      <c r="EG6">
-        <v>0.04</v>
-      </c>
-      <c r="EH6">
-        <v>0.04</v>
-      </c>
-      <c r="EI6">
-        <v>0.04</v>
-      </c>
-      <c r="EJ6">
-        <v>0.04</v>
-      </c>
-      <c r="EK6">
-        <v>0.04</v>
-      </c>
-      <c r="EL6">
-        <v>0.04</v>
-      </c>
-      <c r="EM6">
-        <v>0.04</v>
-      </c>
-      <c r="EN6">
-        <v>0.04</v>
-      </c>
-      <c r="EO6">
-        <v>0.04</v>
-      </c>
-      <c r="EP6">
-        <v>0.04</v>
-      </c>
-      <c r="EQ6">
-        <v>0.04</v>
-      </c>
-      <c r="ER6">
-        <v>0.04</v>
-      </c>
-      <c r="ES6">
-        <v>0.04</v>
-      </c>
-      <c r="ET6">
-        <v>0.04</v>
-      </c>
-      <c r="EU6">
-        <v>0.04</v>
-      </c>
-      <c r="EV6">
-        <v>0.04</v>
-      </c>
-      <c r="EW6">
-        <v>0.04</v>
-      </c>
-      <c r="EX6">
-        <v>0.04</v>
-      </c>
-      <c r="EY6">
-        <v>0.04</v>
-      </c>
-      <c r="EZ6">
-        <v>0.04</v>
-      </c>
-      <c r="FA6">
-        <v>0.04</v>
-      </c>
-      <c r="FB6">
-        <v>0.04</v>
-      </c>
-      <c r="FC6">
-        <v>0.04</v>
-      </c>
-      <c r="FD6">
-        <v>0.04</v>
-      </c>
-      <c r="FE6">
-        <v>0.04</v>
-      </c>
-      <c r="FF6">
-        <v>0.04</v>
-      </c>
-      <c r="FG6">
-        <v>0.04</v>
-      </c>
-      <c r="FH6">
-        <v>0.04</v>
-      </c>
-      <c r="FI6">
-        <v>0.04</v>
-      </c>
-      <c r="FJ6">
-        <v>0.04</v>
-      </c>
-      <c r="FK6">
-        <v>0.04</v>
-      </c>
-      <c r="FL6">
-        <v>0.04</v>
-      </c>
-      <c r="FM6">
-        <v>0.04</v>
-      </c>
-      <c r="FN6">
-        <v>0.04</v>
-      </c>
-      <c r="FO6">
-        <v>0.04</v>
-      </c>
-      <c r="FP6">
-        <v>0.04</v>
-      </c>
-      <c r="FQ6">
-        <v>0.04</v>
-      </c>
-      <c r="FR6">
-        <v>0.04</v>
-      </c>
-      <c r="FS6">
-        <v>0.04</v>
-      </c>
-      <c r="FT6">
-        <v>0.04</v>
-      </c>
-      <c r="FU6">
-        <v>0.04</v>
-      </c>
-      <c r="FV6">
-        <v>0.04</v>
-      </c>
-      <c r="FW6">
-        <v>0.04</v>
-      </c>
-      <c r="FX6">
-        <v>0.04</v>
-      </c>
-      <c r="FY6">
-        <v>0.04</v>
-      </c>
-      <c r="FZ6">
-        <v>0.04</v>
-      </c>
-      <c r="GA6">
-        <v>0.04</v>
-      </c>
-      <c r="GB6">
-        <v>0.04</v>
-      </c>
-      <c r="GC6">
-        <v>0.04</v>
-      </c>
-      <c r="GD6">
-        <v>0.04</v>
-      </c>
-      <c r="GE6">
-        <v>0.04</v>
-      </c>
-      <c r="GF6">
-        <v>0.04</v>
-      </c>
-      <c r="GG6">
-        <v>0.04</v>
-      </c>
-      <c r="GH6">
-        <v>0.04</v>
-      </c>
-      <c r="GI6">
-        <v>0.04</v>
-      </c>
-      <c r="GJ6">
-        <v>0.04</v>
-      </c>
-      <c r="GK6">
-        <v>0.04</v>
-      </c>
-      <c r="GL6">
-        <v>0.04</v>
-      </c>
-      <c r="GM6">
-        <v>0.04</v>
-      </c>
-      <c r="GN6">
-        <v>0.04</v>
-      </c>
-      <c r="GO6">
-        <v>0.04</v>
-      </c>
-      <c r="GP6">
-        <v>0.04</v>
-      </c>
-      <c r="GQ6">
-        <v>0.04</v>
-      </c>
-      <c r="GR6">
-        <v>0.04</v>
-      </c>
-      <c r="GS6">
-        <v>0.04</v>
-      </c>
-      <c r="GT6">
-        <v>0.04</v>
-      </c>
-      <c r="GU6">
-        <v>0.04</v>
-      </c>
-      <c r="GV6">
-        <v>0.04</v>
-      </c>
-      <c r="GW6">
-        <v>0.04</v>
-      </c>
-      <c r="GX6">
-        <v>0.04</v>
-      </c>
-      <c r="GY6">
-        <v>0.04</v>
-      </c>
-      <c r="GZ6">
-        <v>0.04</v>
-      </c>
-      <c r="HA6">
-        <v>0.04</v>
-      </c>
-      <c r="HB6">
-        <v>0.04</v>
-      </c>
-      <c r="HC6">
-        <v>0.04</v>
-      </c>
-      <c r="HD6">
-        <v>0.04</v>
-      </c>
-      <c r="HE6">
-        <v>0.04</v>
-      </c>
-      <c r="HF6">
-        <v>0.04</v>
-      </c>
-      <c r="HG6">
-        <v>0.04</v>
-      </c>
-      <c r="HH6">
-        <v>0.04</v>
-      </c>
-      <c r="HI6">
-        <v>0.04</v>
-      </c>
-      <c r="HJ6">
-        <v>0.04</v>
-      </c>
-      <c r="HK6">
-        <v>0.04</v>
-      </c>
-      <c r="HL6">
-        <v>0.04</v>
-      </c>
-      <c r="HM6">
-        <v>0.04</v>
-      </c>
-      <c r="HN6">
-        <v>0.04</v>
-      </c>
-      <c r="HO6">
-        <v>0.04</v>
-      </c>
-      <c r="HP6">
-        <v>0.04</v>
-      </c>
-      <c r="HQ6">
-        <v>0.04</v>
-      </c>
-      <c r="HR6">
-        <v>0.04</v>
-      </c>
-      <c r="HS6">
-        <v>0.04</v>
-      </c>
-      <c r="HT6">
-        <v>0.04</v>
-      </c>
-      <c r="HU6">
-        <v>0.04</v>
-      </c>
-      <c r="HV6">
-        <v>0.04</v>
-      </c>
-      <c r="HW6">
-        <v>0.04</v>
-      </c>
-      <c r="HX6">
-        <v>0.04</v>
-      </c>
-      <c r="HY6">
-        <v>0.04</v>
-      </c>
-      <c r="HZ6">
-        <v>0.04</v>
-      </c>
-      <c r="IA6">
-        <v>0.04</v>
-      </c>
-      <c r="IB6">
-        <v>0.04</v>
-      </c>
-      <c r="IC6">
-        <v>0.04</v>
-      </c>
-      <c r="ID6">
-        <v>0.04</v>
-      </c>
-      <c r="IE6">
-        <v>0.04</v>
-      </c>
-      <c r="IF6">
-        <v>0.04</v>
-      </c>
-      <c r="IG6">
-        <v>0.04</v>
-      </c>
-      <c r="IH6">
-        <v>0.04</v>
-      </c>
-      <c r="II6">
-        <v>0.04</v>
-      </c>
-      <c r="IJ6">
-        <v>0.04</v>
-      </c>
-      <c r="IK6">
-        <v>0.04</v>
-      </c>
-      <c r="IL6">
-        <v>0.04</v>
-      </c>
-      <c r="IM6">
-        <v>0.04</v>
-      </c>
-      <c r="IN6">
-        <v>0.04</v>
-      </c>
-      <c r="IO6">
-        <v>0.04</v>
-      </c>
-      <c r="IP6">
-        <v>0.04</v>
-      </c>
-      <c r="IQ6">
-        <v>0.04</v>
-      </c>
-      <c r="IR6">
-        <v>0.04</v>
-      </c>
-      <c r="IS6">
-        <v>0.04</v>
-      </c>
-      <c r="IT6">
-        <v>0.04</v>
-      </c>
-      <c r="IU6">
-        <v>0.04</v>
-      </c>
-      <c r="IV6">
-        <v>0.04</v>
-      </c>
-      <c r="IW6">
-        <v>0.04</v>
-      </c>
-      <c r="IX6">
-        <v>0.04</v>
-      </c>
-      <c r="IY6">
-        <v>0.04</v>
-      </c>
-      <c r="IZ6">
-        <v>0.04</v>
-      </c>
-      <c r="JA6">
-        <v>0.04</v>
-      </c>
-      <c r="JB6">
-        <v>0.04</v>
-      </c>
-      <c r="JC6">
-        <v>0.04</v>
-      </c>
-      <c r="JD6">
-        <v>0.04</v>
-      </c>
-      <c r="JE6">
-        <v>0.04</v>
-      </c>
-      <c r="JF6">
-        <v>0.04</v>
-      </c>
-      <c r="JG6">
-        <v>0.04</v>
-      </c>
-      <c r="JH6">
-        <v>0.04</v>
-      </c>
-      <c r="JI6">
-        <v>0.04</v>
-      </c>
-      <c r="JJ6">
-        <v>0.04</v>
-      </c>
-      <c r="JK6">
-        <v>0.04</v>
-      </c>
-      <c r="JL6">
-        <v>0.04</v>
-      </c>
-      <c r="JM6">
-        <v>0.04</v>
-      </c>
-      <c r="JN6">
-        <v>0.04</v>
-      </c>
-      <c r="JO6">
-        <v>0.04</v>
-      </c>
-      <c r="JP6">
-        <v>0.04</v>
-      </c>
-      <c r="JQ6">
-        <v>0.04</v>
-      </c>
-      <c r="JR6">
-        <v>0.04</v>
-      </c>
-      <c r="JS6">
-        <v>0.04</v>
-      </c>
-      <c r="JT6">
-        <v>0.04</v>
-      </c>
-      <c r="JU6">
-        <v>0.04</v>
-      </c>
-      <c r="JV6">
-        <v>0.04</v>
-      </c>
-      <c r="JW6">
-        <v>0.04</v>
-      </c>
-      <c r="JX6">
-        <v>0.04</v>
-      </c>
-      <c r="JY6">
-        <v>0.04</v>
-      </c>
-      <c r="JZ6">
-        <v>0.04</v>
-      </c>
-      <c r="KA6">
-        <v>0.04</v>
-      </c>
-      <c r="KB6">
-        <v>0.04</v>
-      </c>
-      <c r="KC6">
-        <v>0.04</v>
-      </c>
-      <c r="KD6">
-        <v>0.04</v>
-      </c>
-      <c r="KE6">
-        <v>0.04</v>
-      </c>
-      <c r="KF6">
-        <v>0.04</v>
-      </c>
-      <c r="KG6">
-        <v>0.04</v>
-      </c>
-      <c r="KH6">
-        <v>0.04</v>
-      </c>
-      <c r="KI6">
-        <v>0.04</v>
-      </c>
-      <c r="KJ6">
-        <v>0.04</v>
-      </c>
-      <c r="KK6">
-        <v>0.04</v>
-      </c>
-      <c r="KL6">
-        <v>0.04</v>
-      </c>
-      <c r="KM6">
-        <v>0.04</v>
-      </c>
-      <c r="KN6">
-        <v>0.04</v>
-      </c>
-      <c r="KO6">
-        <v>0.04</v>
-      </c>
-      <c r="KP6">
-        <v>0.04</v>
-      </c>
-      <c r="KQ6">
-        <v>0.04</v>
-      </c>
-      <c r="KR6">
-        <v>0.04</v>
-      </c>
-      <c r="KS6">
-        <v>0.04</v>
-      </c>
-      <c r="KT6">
-        <v>0.04</v>
-      </c>
-      <c r="KU6">
-        <v>0.04</v>
-      </c>
-      <c r="KV6">
-        <v>0.04</v>
-      </c>
-      <c r="KW6">
-        <v>0.04</v>
-      </c>
-      <c r="KX6">
-        <v>0.04</v>
-      </c>
-      <c r="KY6">
-        <v>0.04</v>
-      </c>
-      <c r="KZ6">
-        <v>0.04</v>
-      </c>
-      <c r="LA6">
-        <v>0.04</v>
-      </c>
-      <c r="LB6">
-        <v>0.04</v>
-      </c>
-      <c r="LC6">
-        <v>0.04</v>
-      </c>
-      <c r="LD6">
-        <v>0.04</v>
-      </c>
-      <c r="LE6">
-        <v>0.04</v>
-      </c>
-      <c r="LF6">
-        <v>0.04</v>
-      </c>
-      <c r="LG6">
-        <v>0.04</v>
-      </c>
-      <c r="LH6">
-        <v>0.04</v>
-      </c>
-      <c r="LI6">
-        <v>0.04</v>
-      </c>
-      <c r="LJ6">
-        <v>0.04</v>
-      </c>
-      <c r="LK6">
-        <v>0.04</v>
-      </c>
-      <c r="LL6">
-        <v>0.04</v>
-      </c>
-      <c r="LM6">
-        <v>0.04</v>
-      </c>
-      <c r="LN6">
-        <v>0.04</v>
-      </c>
-      <c r="LO6">
-        <v>0.04</v>
-      </c>
-      <c r="LP6">
-        <v>0.04</v>
-      </c>
-      <c r="LQ6">
-        <v>0.04</v>
-      </c>
-      <c r="LR6">
-        <v>0.04</v>
-      </c>
-      <c r="LS6">
-        <v>0.04</v>
-      </c>
-      <c r="LT6">
-        <v>0.04</v>
-      </c>
-      <c r="LU6">
-        <v>0.04</v>
-      </c>
-      <c r="LV6">
-        <v>0.04</v>
-      </c>
-      <c r="LW6">
-        <v>0.04</v>
-      </c>
-      <c r="LX6">
-        <v>0.04</v>
-      </c>
-      <c r="LY6">
-        <v>0.04</v>
-      </c>
-      <c r="LZ6">
-        <v>0.04</v>
-      </c>
-      <c r="MA6">
-        <v>0.04</v>
-      </c>
-      <c r="MB6">
-        <v>0.04</v>
-      </c>
-      <c r="MC6">
-        <v>0.04</v>
-      </c>
-      <c r="MD6">
-        <v>0.04</v>
-      </c>
-      <c r="ME6">
-        <v>0.04</v>
-      </c>
-      <c r="MF6">
-        <v>0.04</v>
-      </c>
-      <c r="MG6">
-        <v>0.04</v>
-      </c>
-      <c r="MH6">
-        <v>0.04</v>
-      </c>
-      <c r="MI6">
-        <v>0.04</v>
-      </c>
-      <c r="MJ6">
-        <v>0.04</v>
-      </c>
-      <c r="MK6">
-        <v>0.04</v>
-      </c>
-      <c r="ML6">
-        <v>0.04</v>
-      </c>
-      <c r="MM6">
-        <v>0.04</v>
-      </c>
-      <c r="MN6">
-        <v>0.04</v>
-      </c>
-      <c r="MO6">
-        <v>0.04</v>
-      </c>
-      <c r="MP6">
-        <v>0.04</v>
-      </c>
-      <c r="MQ6">
-        <v>0.04</v>
-      </c>
-      <c r="MR6">
-        <v>0.04</v>
-      </c>
-      <c r="MS6">
-        <v>0.04</v>
-      </c>
-      <c r="MT6">
-        <v>0.04</v>
-      </c>
-      <c r="MU6">
-        <v>0.04</v>
-      </c>
-      <c r="MV6">
-        <v>0.04</v>
-      </c>
-      <c r="MW6">
-        <v>0.04</v>
-      </c>
-      <c r="MX6">
-        <v>0.04</v>
-      </c>
-      <c r="MY6">
-        <v>0.04</v>
-      </c>
-      <c r="MZ6">
-        <v>0.04</v>
-      </c>
-      <c r="NA6">
-        <v>0.04</v>
-      </c>
-      <c r="NB6">
-        <v>0.04</v>
-      </c>
-      <c r="NC6">
-        <v>0.04</v>
-      </c>
-      <c r="ND6">
-        <v>0.04</v>
-      </c>
-      <c r="NE6">
-        <v>0.04</v>
-      </c>
-      <c r="NF6">
-        <v>0.04</v>
-      </c>
-      <c r="NG6">
-        <v>0.04</v>
-      </c>
-      <c r="NH6">
-        <v>0.04</v>
-      </c>
-      <c r="NI6">
-        <v>0.04</v>
-      </c>
-      <c r="NJ6">
-        <v>0.04</v>
-      </c>
-      <c r="NK6">
-        <v>0.04</v>
-      </c>
-      <c r="NL6">
-        <v>0.04</v>
-      </c>
-      <c r="NM6">
-        <v>0.04</v>
-      </c>
-      <c r="NN6">
-        <v>0.04</v>
-      </c>
-      <c r="NO6">
-        <v>0.04</v>
-      </c>
-      <c r="NP6">
-        <v>0.04</v>
-      </c>
-      <c r="NQ6">
-        <v>0.04</v>
-      </c>
-      <c r="NR6">
-        <v>0.04</v>
-      </c>
-      <c r="NS6">
-        <v>0.04</v>
-      </c>
-      <c r="NT6">
-        <v>0.04</v>
-      </c>
-      <c r="NU6">
-        <v>0.04</v>
-      </c>
-      <c r="NV6">
-        <v>0.04</v>
-      </c>
-      <c r="NW6">
-        <v>0.04</v>
-      </c>
-      <c r="NX6">
-        <v>0.04</v>
-      </c>
-      <c r="NY6">
-        <v>0.04</v>
-      </c>
-      <c r="NZ6">
-        <v>0.04</v>
-      </c>
-      <c r="OA6">
-        <v>0.04</v>
-      </c>
-      <c r="OB6">
-        <v>0.04</v>
-      </c>
-      <c r="OC6">
-        <v>0.04</v>
-      </c>
-      <c r="OD6">
-        <v>0.04</v>
-      </c>
-      <c r="OE6">
-        <v>0.04</v>
-      </c>
-      <c r="OF6">
-        <v>0.04</v>
-      </c>
-      <c r="OG6">
-        <v>0.04</v>
-      </c>
-      <c r="OH6">
-        <v>0.04</v>
-      </c>
-      <c r="OI6">
-        <v>0.04</v>
-      </c>
-      <c r="OJ6">
-        <v>0.04</v>
-      </c>
-      <c r="OK6">
-        <v>0.04</v>
-      </c>
-      <c r="OL6">
-        <v>0.04</v>
-      </c>
-      <c r="OM6">
-        <v>0.04</v>
-      </c>
-      <c r="ON6">
-        <v>0.04</v>
-      </c>
-      <c r="OO6">
-        <v>0.04</v>
-      </c>
-      <c r="OP6">
-        <v>0.04</v>
-      </c>
-      <c r="OQ6">
-        <v>0.04</v>
-      </c>
-      <c r="OR6">
-        <v>0.04</v>
-      </c>
-      <c r="OS6">
-        <v>0.04</v>
-      </c>
-      <c r="OT6">
-        <v>0.04</v>
-      </c>
-      <c r="OU6">
-        <v>0.04</v>
-      </c>
-      <c r="OV6">
-        <v>0.04</v>
-      </c>
-      <c r="OW6">
-        <v>0.04</v>
-      </c>
-      <c r="OX6">
-        <v>0.04</v>
-      </c>
-      <c r="OY6">
-        <v>0.04</v>
-      </c>
-      <c r="OZ6">
-        <v>0.04</v>
-      </c>
-      <c r="PA6">
-        <v>0.04</v>
-      </c>
-      <c r="PB6">
-        <v>0.04</v>
-      </c>
-      <c r="PC6">
-        <v>0.04</v>
-      </c>
-      <c r="PD6">
-        <v>0.04</v>
-      </c>
-      <c r="PE6">
-        <v>0.04</v>
-      </c>
-      <c r="PF6">
-        <v>0.04</v>
-      </c>
-      <c r="PG6">
-        <v>0.04</v>
-      </c>
-      <c r="PH6">
-        <v>0.04</v>
-      </c>
-      <c r="PI6">
-        <v>0.04</v>
-      </c>
-      <c r="PJ6">
-        <v>0.04</v>
-      </c>
-      <c r="PK6">
-        <v>0.04</v>
-      </c>
-      <c r="PL6">
-        <v>0.04</v>
-      </c>
-      <c r="PM6">
-        <v>0.04</v>
-      </c>
-      <c r="PN6">
-        <v>0.04</v>
-      </c>
-      <c r="PO6">
-        <v>0.04</v>
-      </c>
-      <c r="PP6">
-        <v>0.04</v>
-      </c>
-      <c r="PQ6">
-        <v>0.04</v>
-      </c>
-      <c r="PR6">
-        <v>0.04</v>
-      </c>
-      <c r="PS6">
-        <v>0.04</v>
-      </c>
-      <c r="PT6">
-        <v>0.04</v>
-      </c>
-      <c r="PU6">
-        <v>0.04</v>
-      </c>
-      <c r="PV6">
-        <v>0.04</v>
-      </c>
-      <c r="PW6">
-        <v>0.04</v>
-      </c>
-      <c r="PX6">
-        <v>0.04</v>
-      </c>
-      <c r="PY6">
-        <v>0.04</v>
-      </c>
-      <c r="PZ6">
-        <v>0.04</v>
-      </c>
-      <c r="QA6">
-        <v>0.04</v>
-      </c>
-      <c r="QB6">
-        <v>0.04</v>
-      </c>
-      <c r="QC6">
-        <v>0.04</v>
-      </c>
-      <c r="QD6">
-        <v>0.04</v>
-      </c>
-      <c r="QE6">
-        <v>0.04</v>
-      </c>
-      <c r="QF6">
-        <v>0.04</v>
-      </c>
-      <c r="QG6">
-        <v>0.04</v>
-      </c>
-      <c r="QH6">
-        <v>0.04</v>
-      </c>
-      <c r="QI6">
-        <v>0.04</v>
-      </c>
-      <c r="QJ6">
-        <v>0.04</v>
-      </c>
-      <c r="QK6">
-        <v>0.04</v>
-      </c>
-      <c r="QL6">
-        <v>0.04</v>
-      </c>
-      <c r="QM6">
-        <v>0.04</v>
-      </c>
-      <c r="QN6">
-        <v>0.04</v>
-      </c>
-      <c r="QO6">
-        <v>0.04</v>
-      </c>
-      <c r="QP6">
-        <v>0.04</v>
-      </c>
-      <c r="QQ6">
-        <v>0.04</v>
-      </c>
-      <c r="QR6">
-        <v>0.04</v>
-      </c>
-      <c r="QS6">
-        <v>0.04</v>
-      </c>
-      <c r="QT6">
-        <v>0.04</v>
-      </c>
-      <c r="QU6">
-        <v>0.04</v>
-      </c>
-      <c r="QV6">
-        <v>0.04</v>
-      </c>
-      <c r="QW6">
-        <v>0.04</v>
-      </c>
-      <c r="QX6">
-        <v>0.04</v>
-      </c>
-      <c r="QY6">
-        <v>0.04</v>
-      </c>
-      <c r="QZ6">
-        <v>0.04</v>
-      </c>
-      <c r="RA6">
-        <v>0.04</v>
-      </c>
-      <c r="RB6">
-        <v>0.04</v>
-      </c>
-      <c r="RC6">
-        <v>0.04</v>
-      </c>
-      <c r="RD6">
-        <v>0.04</v>
-      </c>
-      <c r="RE6">
-        <v>0.04</v>
-      </c>
-      <c r="RF6">
-        <v>0.04</v>
-      </c>
-      <c r="RG6">
-        <v>0.04</v>
-      </c>
-      <c r="RH6">
-        <v>0.04</v>
-      </c>
-      <c r="RI6">
-        <v>0.04</v>
-      </c>
-      <c r="RJ6">
-        <v>0.04</v>
-      </c>
-      <c r="RK6">
-        <v>0.04</v>
-      </c>
-      <c r="RL6">
-        <v>0.04</v>
-      </c>
-      <c r="RM6">
-        <v>0.04</v>
-      </c>
-      <c r="RN6">
-        <v>0.04</v>
-      </c>
-      <c r="RO6">
-        <v>0.04</v>
-      </c>
-      <c r="RP6">
-        <v>0.04</v>
-      </c>
-      <c r="RQ6">
-        <v>0.04</v>
-      </c>
-      <c r="RR6">
-        <v>0.04</v>
-      </c>
-      <c r="RS6">
-        <v>0.04</v>
-      </c>
-      <c r="RT6">
-        <v>0.04</v>
-      </c>
-      <c r="RU6">
-        <v>0.04</v>
-      </c>
-      <c r="RV6">
-        <v>0.04</v>
-      </c>
-      <c r="RW6">
-        <v>0.04</v>
-      </c>
-      <c r="RX6">
-        <v>0.04</v>
-      </c>
-      <c r="RY6">
-        <v>0.04</v>
-      </c>
-      <c r="RZ6">
-        <v>0.04</v>
-      </c>
-      <c r="SA6">
-        <v>0.04</v>
-      </c>
-      <c r="SB6">
-        <v>0.04</v>
-      </c>
-      <c r="SC6">
-        <v>0.04</v>
-      </c>
-      <c r="SD6">
-        <v>0.04</v>
-      </c>
-      <c r="SE6">
-        <v>0.04</v>
-      </c>
-      <c r="SF6">
-        <v>0.04</v>
-      </c>
-      <c r="SG6">
-        <v>0.04</v>
-      </c>
-      <c r="SH6">
-        <v>0.04</v>
-      </c>
-      <c r="SI6">
-        <v>0.04</v>
-      </c>
-      <c r="SJ6">
-        <v>0.04</v>
-      </c>
-      <c r="SK6">
-        <v>0.04</v>
-      </c>
-      <c r="SL6">
-        <v>0.04</v>
-      </c>
-      <c r="SM6">
-        <v>0.04</v>
-      </c>
-      <c r="SN6">
-        <v>0.04</v>
-      </c>
-      <c r="SO6">
-        <v>0.04</v>
-      </c>
-      <c r="SP6">
-        <v>0.04</v>
-      </c>
-      <c r="SQ6">
-        <v>0.04</v>
-      </c>
-      <c r="SR6">
-        <v>0.04</v>
-      </c>
-      <c r="SS6">
-        <v>0.04</v>
-      </c>
-      <c r="ST6">
-        <v>0.04</v>
-      </c>
-      <c r="SU6">
-        <v>0.04</v>
-      </c>
-      <c r="SV6">
-        <v>0.04</v>
-      </c>
-      <c r="SW6">
-        <v>0.04</v>
-      </c>
-      <c r="SX6">
-        <v>0.04</v>
-      </c>
-      <c r="SY6">
-        <v>0.04</v>
-      </c>
-      <c r="SZ6">
-        <v>0.04</v>
-      </c>
-      <c r="TA6">
-        <v>0.04</v>
-      </c>
-      <c r="TB6">
-        <v>0.04</v>
-      </c>
-      <c r="TC6">
-        <v>0.04</v>
-      </c>
-      <c r="TD6">
-        <v>0.04</v>
-      </c>
-      <c r="TE6">
-        <v>0.04</v>
-      </c>
-      <c r="TF6">
-        <v>0.04</v>
-      </c>
-      <c r="TG6">
-        <v>0.04</v>
-      </c>
-      <c r="TH6">
-        <v>0.04</v>
-      </c>
-      <c r="TI6">
-        <v>0.04</v>
-      </c>
-      <c r="TJ6">
-        <v>0.04</v>
-      </c>
-      <c r="TK6">
-        <v>0.04</v>
-      </c>
-      <c r="TL6">
-        <v>0.04</v>
-      </c>
-      <c r="TM6">
-        <v>0.04</v>
-      </c>
-      <c r="TN6">
-        <v>0.04</v>
-      </c>
-      <c r="TO6">
-        <v>0.04</v>
-      </c>
-      <c r="TP6">
-        <v>0.04</v>
-      </c>
-      <c r="TQ6">
-        <v>0.04</v>
-      </c>
-      <c r="TR6">
-        <v>0.04</v>
-      </c>
-      <c r="TS6">
-        <v>0.04</v>
-      </c>
-      <c r="TT6">
-        <v>0.04</v>
-      </c>
-      <c r="TU6">
-        <v>0.04</v>
-      </c>
-      <c r="TV6">
-        <v>0.04</v>
-      </c>
-      <c r="TW6">
-        <v>0.04</v>
-      </c>
-      <c r="TX6">
-        <v>0.04</v>
-      </c>
-      <c r="TY6">
-        <v>0.04</v>
-      </c>
-      <c r="TZ6">
-        <v>0.04</v>
-      </c>
-      <c r="UA6">
-        <v>0.04</v>
-      </c>
-      <c r="UB6">
-        <v>0.04</v>
-      </c>
-      <c r="UC6">
-        <v>0.04</v>
-      </c>
-      <c r="UD6">
-        <v>0.04</v>
-      </c>
-      <c r="UE6">
-        <v>0.04</v>
-      </c>
-      <c r="UF6">
-        <v>0.04</v>
-      </c>
-      <c r="UG6">
-        <v>0.04</v>
-      </c>
-      <c r="UH6">
-        <v>0.04</v>
-      </c>
-      <c r="UI6">
-        <v>0.04</v>
-      </c>
-      <c r="UJ6">
-        <v>0.04</v>
-      </c>
-      <c r="UK6">
-        <v>0.04</v>
-      </c>
-      <c r="UL6">
-        <v>0.04</v>
-      </c>
-      <c r="UM6">
-        <v>0.04</v>
-      </c>
-      <c r="UN6">
-        <v>0.04</v>
-      </c>
-      <c r="UO6">
-        <v>0.04</v>
-      </c>
-      <c r="UP6">
-        <v>0.04</v>
-      </c>
-      <c r="UQ6">
-        <v>0.04</v>
-      </c>
-      <c r="UR6">
-        <v>0.04</v>
-      </c>
-      <c r="US6">
-        <v>0.04</v>
-      </c>
-      <c r="UT6">
-        <v>0.04</v>
-      </c>
-      <c r="UU6">
-        <v>0.04</v>
-      </c>
-      <c r="UV6">
-        <v>0.04</v>
-      </c>
-      <c r="UW6">
-        <v>0.04</v>
-      </c>
-      <c r="UX6">
-        <v>0.04</v>
-      </c>
-      <c r="UY6">
-        <v>0.04</v>
-      </c>
-      <c r="UZ6">
-        <v>0.04</v>
-      </c>
-      <c r="VA6">
-        <v>0.04</v>
-      </c>
-      <c r="VB6">
-        <v>0.04</v>
-      </c>
-      <c r="VC6">
-        <v>0.04</v>
-      </c>
-      <c r="VD6">
-        <v>0.04</v>
-      </c>
-      <c r="VE6">
-        <v>0.04</v>
-      </c>
-      <c r="VF6">
-        <v>0.04</v>
-      </c>
-      <c r="VG6">
-        <v>0.04</v>
-      </c>
-      <c r="VH6">
-        <v>0.04</v>
-      </c>
-      <c r="VI6">
-        <v>0.04</v>
-      </c>
-      <c r="VJ6">
-        <v>0.04</v>
-      </c>
-      <c r="VK6">
-        <v>0.04</v>
-      </c>
-      <c r="VL6">
-        <v>0.04</v>
-      </c>
-      <c r="VM6">
-        <v>0.04</v>
-      </c>
-      <c r="VN6">
-        <v>0.04</v>
-      </c>
-      <c r="VO6">
-        <v>0.04</v>
-      </c>
-      <c r="VP6">
-        <v>0.04</v>
-      </c>
-      <c r="VQ6">
-        <v>0.04</v>
-      </c>
-      <c r="VR6">
-        <v>0.04</v>
-      </c>
-      <c r="VS6">
-        <v>0.04</v>
-      </c>
-      <c r="VT6">
-        <v>0.04</v>
-      </c>
-      <c r="VU6">
-        <v>0.04</v>
-      </c>
-      <c r="VV6">
-        <v>0.04</v>
-      </c>
-      <c r="VW6">
-        <v>0.04</v>
-      </c>
-      <c r="VX6">
-        <v>0.04</v>
-      </c>
-      <c r="VY6">
-        <v>0.04</v>
-      </c>
-      <c r="VZ6">
-        <v>0.04</v>
-      </c>
-      <c r="WA6">
-        <v>0.04</v>
-      </c>
-      <c r="WB6">
-        <v>0.04</v>
-      </c>
-      <c r="WC6">
-        <v>0.04</v>
-      </c>
-      <c r="WD6">
-        <v>0.04</v>
-      </c>
-      <c r="WE6">
-        <v>0.04</v>
-      </c>
-      <c r="WF6">
-        <v>0.04</v>
-      </c>
-      <c r="WG6">
-        <v>0.04</v>
-      </c>
-      <c r="WH6">
-        <v>0.04</v>
-      </c>
-      <c r="WI6">
-        <v>0.04</v>
-      </c>
-      <c r="WJ6">
-        <v>0.04</v>
-      </c>
-      <c r="WK6">
-        <v>0.04</v>
-      </c>
-      <c r="WL6">
-        <v>0.04</v>
-      </c>
-      <c r="WM6">
-        <v>0.04</v>
-      </c>
-      <c r="WN6">
-        <v>0.04</v>
-      </c>
-      <c r="WO6">
-        <v>0.04</v>
-      </c>
-      <c r="WP6">
-        <v>0.04</v>
-      </c>
-      <c r="WQ6">
-        <v>0.04</v>
-      </c>
-      <c r="WR6">
-        <v>0.04</v>
-      </c>
-      <c r="WS6">
-        <v>0.04</v>
-      </c>
-      <c r="WT6">
-        <v>0.04</v>
-      </c>
-      <c r="WU6">
-        <v>0.04</v>
-      </c>
-      <c r="WV6">
-        <v>0.04</v>
-      </c>
-      <c r="WW6">
-        <v>0.04</v>
-      </c>
-      <c r="WX6">
-        <v>0.04</v>
-      </c>
-      <c r="WY6">
-        <v>0.04</v>
-      </c>
-      <c r="WZ6">
-        <v>0.04</v>
-      </c>
-      <c r="XA6">
-        <v>0.04</v>
-      </c>
-      <c r="XB6">
-        <v>0.04</v>
-      </c>
-      <c r="XC6">
-        <v>0.04</v>
-      </c>
-      <c r="XD6">
-        <v>0.04</v>
-      </c>
-      <c r="XE6">
-        <v>0.04</v>
-      </c>
-      <c r="XF6">
-        <v>0.04</v>
-      </c>
-      <c r="XG6">
-        <v>0.04</v>
-      </c>
-      <c r="XH6">
-        <v>0.04</v>
-      </c>
-      <c r="XI6">
-        <v>0.04</v>
-      </c>
-      <c r="XJ6">
-        <v>0.04</v>
-      </c>
-      <c r="XK6">
-        <v>0.04</v>
-      </c>
-      <c r="XL6">
-        <v>0.04</v>
-      </c>
-      <c r="XM6">
-        <v>0.04</v>
-      </c>
-      <c r="XN6">
-        <v>0.04</v>
-      </c>
-      <c r="XO6">
-        <v>0.04</v>
-      </c>
-      <c r="XP6">
-        <v>0.04</v>
-      </c>
-      <c r="XQ6">
-        <v>0.04</v>
-      </c>
-      <c r="XR6">
-        <v>0.04</v>
-      </c>
-      <c r="XS6">
-        <v>0.04</v>
-      </c>
-      <c r="XT6">
-        <v>0.04</v>
-      </c>
-      <c r="XU6">
-        <v>0.04</v>
-      </c>
-      <c r="XV6">
-        <v>0.04</v>
-      </c>
-      <c r="XW6">
-        <v>0.04</v>
-      </c>
-      <c r="XX6">
-        <v>0.04</v>
-      </c>
-      <c r="XY6">
-        <v>0.04</v>
-      </c>
-      <c r="XZ6">
-        <v>0.04</v>
-      </c>
-      <c r="YA6">
-        <v>0.04</v>
-      </c>
-      <c r="YB6">
-        <v>0.04</v>
-      </c>
-      <c r="YC6">
-        <v>0.04</v>
-      </c>
-      <c r="YD6">
-        <v>0.04</v>
-      </c>
-      <c r="YE6">
-        <v>0.04</v>
-      </c>
-      <c r="YF6">
-        <v>0.04</v>
-      </c>
-      <c r="YG6">
-        <v>0.04</v>
-      </c>
-      <c r="YH6">
-        <v>0.04</v>
-      </c>
-      <c r="YI6">
-        <v>0.04</v>
-      </c>
-      <c r="YJ6">
-        <v>0.04</v>
-      </c>
-      <c r="YK6">
-        <v>0.04</v>
-      </c>
-      <c r="YL6">
-        <v>0.04</v>
-      </c>
-      <c r="YM6">
-        <v>0.04</v>
-      </c>
-      <c r="YN6">
-        <v>0.04</v>
-      </c>
-      <c r="YO6">
-        <v>0.04</v>
-      </c>
-      <c r="YP6">
-        <v>0.04</v>
-      </c>
-      <c r="YQ6">
-        <v>0.04</v>
-      </c>
-      <c r="YR6">
-        <v>0.04</v>
-      </c>
-      <c r="YS6">
-        <v>0.04</v>
-      </c>
-      <c r="YT6">
-        <v>0.04</v>
-      </c>
-      <c r="YU6">
-        <v>0.04</v>
-      </c>
-      <c r="YV6">
-        <v>0.04</v>
-      </c>
-      <c r="YW6">
-        <v>0.04</v>
-      </c>
-      <c r="YX6">
-        <v>0.04</v>
-      </c>
-      <c r="YY6">
-        <v>0.04</v>
-      </c>
-      <c r="YZ6">
-        <v>0.04</v>
-      </c>
-      <c r="ZA6">
-        <v>0.04</v>
-      </c>
-      <c r="ZB6">
-        <v>0.04</v>
-      </c>
-      <c r="ZC6">
-        <v>0.04</v>
-      </c>
-      <c r="ZD6">
-        <v>0.04</v>
-      </c>
-      <c r="ZE6">
-        <v>0.04</v>
-      </c>
-      <c r="ZF6">
-        <v>0.04</v>
-      </c>
-      <c r="ZG6">
-        <v>0.04</v>
-      </c>
-      <c r="ZH6">
-        <v>0.04</v>
-      </c>
-      <c r="ZI6">
-        <v>0.04</v>
-      </c>
-      <c r="ZJ6">
-        <v>0.04</v>
-      </c>
-      <c r="ZK6">
-        <v>0.04</v>
-      </c>
-      <c r="ZL6">
-        <v>0.04</v>
-      </c>
-      <c r="ZM6">
-        <v>0.04</v>
-      </c>
-      <c r="ZN6">
-        <v>0.04</v>
-      </c>
-      <c r="ZO6">
-        <v>0.04</v>
-      </c>
-      <c r="ZP6">
-        <v>0.04</v>
-      </c>
-      <c r="ZQ6">
-        <v>0.04</v>
-      </c>
-      <c r="ZR6">
-        <v>0.04</v>
-      </c>
-      <c r="ZS6">
-        <v>0.04</v>
-      </c>
-      <c r="ZT6">
-        <v>0.04</v>
-      </c>
-      <c r="ZU6">
-        <v>0.04</v>
-      </c>
-      <c r="ZV6">
-        <v>0.04</v>
-      </c>
-      <c r="ZW6">
-        <v>0.04</v>
-      </c>
-      <c r="ZX6">
-        <v>0.04</v>
-      </c>
-      <c r="ZY6">
-        <v>0.04</v>
-      </c>
-      <c r="ZZ6">
-        <v>0.04</v>
-      </c>
-      <c r="AAA6">
-        <v>0.04</v>
-      </c>
-      <c r="AAB6">
-        <v>0.04</v>
-      </c>
-      <c r="AAC6">
-        <v>0.04</v>
-      </c>
-      <c r="AAD6">
-        <v>0.04</v>
-      </c>
-      <c r="AAE6">
-        <v>0.04</v>
-      </c>
-      <c r="AAF6">
-        <v>0.04</v>
-      </c>
-      <c r="AAG6">
-        <v>0.04</v>
-      </c>
-      <c r="AAH6">
-        <v>0.04</v>
-      </c>
-      <c r="AAI6">
-        <v>0.04</v>
-      </c>
-      <c r="AAJ6">
-        <v>0.04</v>
-      </c>
-      <c r="AAK6">
-        <v>0.04</v>
-      </c>
-      <c r="AAL6">
-        <v>0.04</v>
-      </c>
-      <c r="AAM6">
-        <v>0.04</v>
-      </c>
-      <c r="AAN6">
-        <v>0.04</v>
-      </c>
-      <c r="AAO6">
-        <v>0.04</v>
-      </c>
-      <c r="AAP6">
-        <v>0.04</v>
-      </c>
-      <c r="AAQ6">
-        <v>0.04</v>
-      </c>
-      <c r="AAR6">
-        <v>0.04</v>
-      </c>
-      <c r="AAS6">
-        <v>0.04</v>
-      </c>
-      <c r="AAT6">
-        <v>0.04</v>
-      </c>
-      <c r="AAU6">
-        <v>0.04</v>
-      </c>
-      <c r="AAV6">
-        <v>0.04</v>
-      </c>
-      <c r="AAW6">
-        <v>0.04</v>
-      </c>
-      <c r="AAX6">
-        <v>0.04</v>
-      </c>
-      <c r="AAY6">
-        <v>0.04</v>
-      </c>
-      <c r="AAZ6">
-        <v>0.04</v>
-      </c>
-      <c r="ABA6">
-        <v>0.04</v>
-      </c>
-      <c r="ABB6">
-        <v>0.04</v>
-      </c>
-      <c r="ABC6">
-        <v>0.04</v>
-      </c>
-      <c r="ABD6">
-        <v>0.04</v>
-      </c>
-      <c r="ABE6">
-        <v>0.04</v>
-      </c>
-      <c r="ABF6">
-        <v>0.04</v>
-      </c>
-      <c r="ABG6">
-        <v>0.04</v>
-      </c>
-      <c r="ABH6">
-        <v>0.04</v>
-      </c>
-      <c r="ABI6">
-        <v>0.04</v>
-      </c>
-      <c r="ABJ6">
-        <v>0.04</v>
-      </c>
-      <c r="ABK6">
-        <v>0.04</v>
-      </c>
-      <c r="ABL6">
-        <v>0.04</v>
-      </c>
-      <c r="ABM6">
-        <v>0.04</v>
-      </c>
-      <c r="ABN6">
-        <v>0.04</v>
-      </c>
-      <c r="ABO6">
-        <v>0.04</v>
-      </c>
-      <c r="ABP6">
-        <v>0.04</v>
-      </c>
-      <c r="ABQ6">
-        <v>0.04</v>
-      </c>
-      <c r="ABR6">
-        <v>0.04</v>
-      </c>
-      <c r="ABS6">
-        <v>0.04</v>
-      </c>
-      <c r="ABT6">
-        <v>0.04</v>
-      </c>
-      <c r="ABU6">
-        <v>0.04</v>
-      </c>
-      <c r="ABV6">
-        <v>0.04</v>
-      </c>
-      <c r="ABW6">
-        <v>0.04</v>
-      </c>
-      <c r="ABX6">
-        <v>0.04</v>
-      </c>
-      <c r="ABY6">
-        <v>0.04</v>
-      </c>
-      <c r="ABZ6">
-        <v>0.04</v>
-      </c>
-      <c r="ACA6">
-        <v>0.04</v>
-      </c>
-      <c r="ACB6">
-        <v>0.04</v>
-      </c>
-      <c r="ACC6">
-        <v>0.04</v>
-      </c>
-      <c r="ACD6">
-        <v>0.04</v>
-      </c>
-      <c r="ACE6">
-        <v>0.04</v>
-      </c>
-      <c r="ACF6">
-        <v>0.04</v>
-      </c>
-      <c r="ACG6">
-        <v>0.04</v>
-      </c>
-      <c r="ACH6">
-        <v>0.04</v>
-      </c>
-      <c r="ACI6">
-        <v>0.04</v>
-      </c>
-      <c r="ACJ6">
-        <v>0.04</v>
-      </c>
-      <c r="ACK6">
-        <v>0.04</v>
-      </c>
-      <c r="ACL6">
-        <v>0.04</v>
-      </c>
-      <c r="ACM6">
-        <v>0.04</v>
-      </c>
-      <c r="ACN6">
-        <v>0.04</v>
-      </c>
-      <c r="ACO6">
-        <v>0.04</v>
-      </c>
-      <c r="ACP6">
-        <v>0.04</v>
-      </c>
-      <c r="ACQ6">
-        <v>0.04</v>
-      </c>
-      <c r="ACR6">
-        <v>0.04</v>
-      </c>
-      <c r="ACS6">
-        <v>0.04</v>
-      </c>
-      <c r="ACT6">
-        <v>0.04</v>
-      </c>
-      <c r="ACU6">
-        <v>0.04</v>
-      </c>
-      <c r="ACV6">
-        <v>0.04</v>
-      </c>
-      <c r="ACW6">
-        <v>0.04</v>
-      </c>
-      <c r="ACX6">
-        <v>0.04</v>
-      </c>
-      <c r="ACY6">
-        <v>0.04</v>
-      </c>
-      <c r="ACZ6">
-        <v>0.04</v>
-      </c>
-      <c r="ADA6">
-        <v>0.04</v>
-      </c>
-      <c r="ADB6">
-        <v>0.04</v>
-      </c>
-      <c r="ADC6">
-        <v>0.04</v>
-      </c>
-      <c r="ADD6">
-        <v>0.04</v>
-      </c>
-      <c r="ADE6">
-        <v>0.04</v>
-      </c>
-      <c r="ADF6">
-        <v>0.04</v>
-      </c>
-      <c r="ADG6">
-        <v>0.04</v>
-      </c>
-      <c r="ADH6">
-        <v>0.04</v>
-      </c>
-      <c r="ADI6">
-        <v>0.04</v>
-      </c>
-      <c r="ADJ6">
-        <v>0.04</v>
-      </c>
-      <c r="ADK6">
-        <v>0.04</v>
-      </c>
-      <c r="ADL6">
-        <v>0.04</v>
-      </c>
-      <c r="ADM6">
-        <v>0.04</v>
-      </c>
-      <c r="ADN6">
-        <v>0.04</v>
-      </c>
-      <c r="ADO6">
-        <v>0.04</v>
-      </c>
-      <c r="ADP6">
-        <v>0.04</v>
-      </c>
-      <c r="ADQ6">
-        <v>0.04</v>
-      </c>
-      <c r="ADR6">
-        <v>0.04</v>
-      </c>
-      <c r="ADS6">
-        <v>0.04</v>
-      </c>
-      <c r="ADT6">
-        <v>0.04</v>
-      </c>
-      <c r="ADU6">
-        <v>0.04</v>
-      </c>
-      <c r="ADV6">
-        <v>0.04</v>
-      </c>
-      <c r="ADW6">
-        <v>0.04</v>
-      </c>
-      <c r="ADX6">
-        <v>0.04</v>
-      </c>
-      <c r="ADY6">
-        <v>0.04</v>
-      </c>
-      <c r="ADZ6">
-        <v>0.04</v>
-      </c>
-      <c r="AEA6">
-        <v>0.04</v>
-      </c>
-      <c r="AEB6">
-        <v>0.04</v>
-      </c>
-      <c r="AEC6">
-        <v>0.04</v>
-      </c>
-      <c r="AED6">
-        <v>0.04</v>
-      </c>
-      <c r="AEE6">
-        <v>0.04</v>
-      </c>
-      <c r="AEF6">
-        <v>0.04</v>
-      </c>
-      <c r="AEG6">
-        <v>0.04</v>
-      </c>
-      <c r="AEH6">
-        <v>0.04</v>
-      </c>
-      <c r="AEI6">
-        <v>0.04</v>
-      </c>
-      <c r="AEJ6">
-        <v>0.04</v>
-      </c>
-      <c r="AEK6">
-        <v>0.04</v>
-      </c>
-      <c r="AEL6">
-        <v>0.04</v>
-      </c>
-      <c r="AEM6">
-        <v>0.04</v>
-      </c>
-      <c r="AEN6">
-        <v>0.04</v>
-      </c>
-      <c r="AEO6">
-        <v>0.04</v>
-      </c>
-      <c r="AEP6">
-        <v>0.04</v>
-      </c>
-      <c r="AEQ6">
-        <v>0.04</v>
-      </c>
-      <c r="AER6">
-        <v>0.04</v>
-      </c>
-      <c r="AES6">
-        <v>0.04</v>
-      </c>
-      <c r="AET6">
-        <v>0.04</v>
-      </c>
-      <c r="AEU6">
-        <v>0.04</v>
-      </c>
-      <c r="AEV6">
-        <v>0.04</v>
-      </c>
-      <c r="AEW6">
-        <v>0.04</v>
-      </c>
-      <c r="AEX6">
-        <v>0.04</v>
-      </c>
-      <c r="AEY6">
-        <v>0.04</v>
-      </c>
-      <c r="AEZ6">
-        <v>0.04</v>
-      </c>
-      <c r="AFA6">
-        <v>0.04</v>
-      </c>
-      <c r="AFB6">
-        <v>0.04</v>
-      </c>
-      <c r="AFC6">
-        <v>0.04</v>
-      </c>
-      <c r="AFD6">
-        <v>0.04</v>
-      </c>
-      <c r="AFE6">
-        <v>0.04</v>
-      </c>
-      <c r="AFF6">
-        <v>0.04</v>
-      </c>
-      <c r="AFG6">
-        <v>0.04</v>
-      </c>
-      <c r="AFH6">
-        <v>0.04</v>
-      </c>
-      <c r="AFI6">
-        <v>0.04</v>
-      </c>
-      <c r="AFJ6">
-        <v>0.04</v>
-      </c>
-      <c r="AFK6">
-        <v>0.04</v>
-      </c>
-      <c r="AFL6">
-        <v>0.04</v>
-      </c>
-      <c r="AFM6">
-        <v>0.04</v>
-      </c>
-      <c r="AFN6">
-        <v>0.04</v>
-      </c>
-      <c r="AFO6">
-        <v>0.04</v>
-      </c>
-      <c r="AFP6">
-        <v>0.04</v>
-      </c>
-      <c r="AFQ6">
-        <v>0.04</v>
-      </c>
-      <c r="AFR6">
-        <v>0.04</v>
-      </c>
-      <c r="AFS6">
-        <v>0.04</v>
-      </c>
-      <c r="AFT6">
-        <v>0.04</v>
-      </c>
-      <c r="AFU6">
-        <v>0.04</v>
-      </c>
-      <c r="AFV6">
-        <v>0.04</v>
-      </c>
-      <c r="AFW6">
-        <v>0.04</v>
-      </c>
-      <c r="AFX6">
-        <v>0.04</v>
-      </c>
-      <c r="AFY6">
-        <v>0.04</v>
-      </c>
-      <c r="AFZ6">
-        <v>0.04</v>
-      </c>
-      <c r="AGA6">
-        <v>0.04</v>
-      </c>
-      <c r="AGB6">
-        <v>0.04</v>
-      </c>
-      <c r="AGC6">
-        <v>0.04</v>
-      </c>
-      <c r="AGD6">
-        <v>0.04</v>
-      </c>
-      <c r="AGE6">
-        <v>0.04</v>
-      </c>
-      <c r="AGF6">
-        <v>0.04</v>
-      </c>
-      <c r="AGG6">
-        <v>0.04</v>
-      </c>
-      <c r="AGH6">
-        <v>0.04</v>
-      </c>
-      <c r="AGI6">
-        <v>0.04</v>
-      </c>
-      <c r="AGJ6">
-        <v>0.04</v>
-      </c>
-      <c r="AGK6">
-        <v>0.04</v>
-      </c>
-      <c r="AGL6">
-        <v>0.04</v>
-      </c>
-      <c r="AGM6">
-        <v>0.04</v>
-      </c>
-      <c r="AGN6">
-        <v>0.04</v>
-      </c>
-      <c r="AGO6">
-        <v>0.04</v>
-      </c>
-      <c r="AGP6">
-        <v>0.04</v>
-      </c>
-      <c r="AGQ6">
-        <v>0.04</v>
-      </c>
-      <c r="AGR6">
-        <v>0.04</v>
-      </c>
-      <c r="AGS6">
-        <v>0.04</v>
-      </c>
-      <c r="AGT6">
-        <v>0.04</v>
-      </c>
-      <c r="AGU6">
-        <v>0.04</v>
-      </c>
-      <c r="AGV6">
-        <v>0.04</v>
-      </c>
-      <c r="AGW6">
-        <v>0.04</v>
-      </c>
-      <c r="AGX6">
-        <v>0.04</v>
-      </c>
-      <c r="AGY6">
-        <v>0.04</v>
-      </c>
-      <c r="AGZ6">
-        <v>0.04</v>
-      </c>
-      <c r="AHA6">
-        <v>0.04</v>
-      </c>
-      <c r="AHB6">
-        <v>0.04</v>
-      </c>
-      <c r="AHC6">
-        <v>0.04</v>
-      </c>
-      <c r="AHD6">
-        <v>0.04</v>
-      </c>
-      <c r="AHE6">
-        <v>0.04</v>
-      </c>
-      <c r="AHF6">
-        <v>0.04</v>
-      </c>
-      <c r="AHG6">
-        <v>0.04</v>
-      </c>
-      <c r="AHH6">
-        <v>0.04</v>
-      </c>
-      <c r="AHI6">
-        <v>0.04</v>
-      </c>
-      <c r="AHJ6">
-        <v>0.04</v>
-      </c>
-      <c r="AHK6">
-        <v>0.04</v>
-      </c>
-      <c r="AHL6">
-        <v>0.04</v>
-      </c>
-      <c r="AHM6">
-        <v>0.04</v>
-      </c>
-      <c r="AHN6">
-        <v>0.04</v>
-      </c>
-      <c r="AHO6">
-        <v>0.04</v>
-      </c>
-      <c r="AHP6">
-        <v>0.04</v>
-      </c>
-      <c r="AHQ6">
-        <v>0.04</v>
-      </c>
-      <c r="AHR6">
-        <v>0.04</v>
-      </c>
-      <c r="AHS6">
-        <v>0.04</v>
-      </c>
-      <c r="AHT6">
-        <v>0.04</v>
-      </c>
-      <c r="AHU6">
-        <v>0.04</v>
-      </c>
-      <c r="AHV6">
-        <v>0.04</v>
-      </c>
-      <c r="AHW6">
-        <v>0.04</v>
-      </c>
-      <c r="AHX6">
-        <v>0.04</v>
-      </c>
-      <c r="AHY6">
-        <v>0.04</v>
-      </c>
-      <c r="AHZ6">
-        <v>0.04</v>
-      </c>
-      <c r="AIA6">
-        <v>0.04</v>
-      </c>
-      <c r="AIB6">
-        <v>0.04</v>
-      </c>
-      <c r="AIC6">
-        <v>0.04</v>
-      </c>
-      <c r="AID6">
-        <v>0.04</v>
-      </c>
-      <c r="AIE6">
-        <v>0.04</v>
-      </c>
-      <c r="AIF6">
-        <v>0.04</v>
-      </c>
-      <c r="AIG6">
-        <v>0.04</v>
-      </c>
-      <c r="AIH6">
-        <v>0.04</v>
-      </c>
-      <c r="AII6">
-        <v>0.04</v>
-      </c>
-      <c r="AIJ6">
-        <v>0.04</v>
-      </c>
-      <c r="AIK6">
-        <v>0.04</v>
-      </c>
-      <c r="AIL6">
-        <v>0.04</v>
-      </c>
-      <c r="AIM6">
-        <v>0.04</v>
-      </c>
-      <c r="AIN6">
-        <v>0.04</v>
-      </c>
-      <c r="AIO6">
-        <v>0.04</v>
-      </c>
-      <c r="AIP6">
-        <v>0.04</v>
-      </c>
-      <c r="AIQ6">
-        <v>0.04</v>
-      </c>
-      <c r="AIR6">
-        <v>0.04</v>
-      </c>
-      <c r="AIS6">
-        <v>0.04</v>
-      </c>
-      <c r="AIT6">
-        <v>0.04</v>
-      </c>
-      <c r="AIU6">
-        <v>0.04</v>
-      </c>
-      <c r="AIV6">
-        <v>0.04</v>
-      </c>
-      <c r="AIW6">
-        <v>0.04</v>
-      </c>
-      <c r="AIX6">
-        <v>0.04</v>
-      </c>
-      <c r="AIY6">
-        <v>0.04</v>
-      </c>
-      <c r="AIZ6">
-        <v>0.04</v>
-      </c>
-      <c r="AJA6">
-        <v>0.04</v>
-      </c>
-      <c r="AJB6">
-        <v>0.04</v>
-      </c>
-      <c r="AJC6">
-        <v>0.04</v>
-      </c>
-      <c r="AJD6">
-        <v>0.04</v>
-      </c>
-      <c r="AJE6">
-        <v>0.04</v>
-      </c>
-      <c r="AJF6">
-        <v>0.04</v>
-      </c>
-      <c r="AJG6">
-        <v>0.04</v>
-      </c>
-      <c r="AJH6">
-        <v>0.04</v>
-      </c>
-      <c r="AJI6">
-        <v>0.04</v>
-      </c>
-      <c r="AJJ6">
-        <v>0.04</v>
-      </c>
-      <c r="AJK6">
-        <v>0.04</v>
-      </c>
-      <c r="AJL6">
-        <v>0.04</v>
-      </c>
-      <c r="AJM6">
-        <v>0.04</v>
-      </c>
-      <c r="AJN6">
-        <v>0.04</v>
-      </c>
-      <c r="AJO6">
-        <v>0.04</v>
-      </c>
-      <c r="AJP6">
-        <v>0.04</v>
-      </c>
-      <c r="AJQ6">
-        <v>0.04</v>
-      </c>
-      <c r="AJR6">
-        <v>0.04</v>
-      </c>
-      <c r="AJS6">
-        <v>0.04</v>
-      </c>
-      <c r="AJT6">
-        <v>0.04</v>
-      </c>
-      <c r="AJU6">
-        <v>0.04</v>
-      </c>
-      <c r="AJV6">
-        <v>0.04</v>
-      </c>
-      <c r="AJW6">
-        <v>0.04</v>
-      </c>
-      <c r="AJX6">
-        <v>0.04</v>
-      </c>
-      <c r="AJY6">
-        <v>0.04</v>
-      </c>
-      <c r="AJZ6">
-        <v>0.04</v>
-      </c>
-      <c r="AKA6">
-        <v>0.04</v>
-      </c>
-      <c r="AKB6">
-        <v>0.04</v>
-      </c>
-      <c r="AKC6">
-        <v>0.04</v>
-      </c>
-      <c r="AKD6">
-        <v>0.04</v>
-      </c>
-      <c r="AKE6">
-        <v>0.04</v>
-      </c>
-      <c r="AKF6">
-        <v>0.04</v>
-      </c>
-      <c r="AKG6">
-        <v>0.04</v>
-      </c>
-      <c r="AKH6">
-        <v>0.04</v>
-      </c>
-      <c r="AKI6">
-        <v>0.04</v>
-      </c>
-      <c r="AKJ6">
-        <v>0.04</v>
-      </c>
-      <c r="AKK6">
-        <v>0.04</v>
-      </c>
-      <c r="AKL6">
-        <v>0.04</v>
-      </c>
-      <c r="AKM6">
-        <v>0.04</v>
-      </c>
-      <c r="AKN6">
-        <v>0.04</v>
-      </c>
-      <c r="AKO6">
-        <v>0.04</v>
-      </c>
-      <c r="AKP6">
-        <v>0.04</v>
-      </c>
-      <c r="AKQ6">
-        <v>0.04</v>
-      </c>
-      <c r="AKR6">
-        <v>0.04</v>
-      </c>
-      <c r="AKS6">
-        <v>0.04</v>
-      </c>
-      <c r="AKT6">
-        <v>0.04</v>
-      </c>
-      <c r="AKU6">
-        <v>0.04</v>
-      </c>
-      <c r="AKV6">
-        <v>0.04</v>
-      </c>
-      <c r="AKW6">
-        <v>0.04</v>
-      </c>
-      <c r="AKX6">
-        <v>0.04</v>
-      </c>
-      <c r="AKY6">
-        <v>0.04</v>
-      </c>
-      <c r="AKZ6">
-        <v>0.04</v>
-      </c>
-      <c r="ALA6">
-        <v>0.04</v>
-      </c>
-      <c r="ALB6">
-        <v>0.04</v>
-      </c>
-      <c r="ALC6">
-        <v>0.04</v>
-      </c>
-      <c r="ALD6">
-        <v>0.04</v>
-      </c>
-      <c r="ALE6">
-        <v>0.04</v>
-      </c>
-      <c r="ALF6">
-        <v>0.04</v>
-      </c>
-      <c r="ALG6">
-        <v>0.04</v>
-      </c>
-      <c r="ALH6">
-        <v>0.04</v>
-      </c>
-      <c r="ALI6">
-        <v>0.04</v>
-      </c>
-      <c r="ALJ6">
-        <v>0.04</v>
-      </c>
-      <c r="ALK6">
-        <v>0.04</v>
-      </c>
-      <c r="ALL6">
-        <v>0.04</v>
-      </c>
-      <c r="ALM6">
-        <v>0.04</v>
-      </c>
-      <c r="ALN6">
-        <v>0.04</v>
-      </c>
-      <c r="ALO6">
-        <v>0.04</v>
-      </c>
-      <c r="ALP6">
-        <v>0.04</v>
-      </c>
-      <c r="ALQ6">
-        <v>0.04</v>
-      </c>
-      <c r="ALR6">
-        <v>0.04</v>
-      </c>
-      <c r="ALS6">
-        <v>0.04</v>
-      </c>
-      <c r="ALT6">
-        <v>0.04</v>
-      </c>
-      <c r="ALU6">
-        <v>0.04</v>
-      </c>
-      <c r="ALV6">
-        <v>0.04</v>
-      </c>
-      <c r="ALW6">
-        <v>0.04</v>
-      </c>
-      <c r="ALX6">
-        <v>0.04</v>
-      </c>
-      <c r="ALY6">
-        <v>0.04</v>
-      </c>
-      <c r="ALZ6">
-        <v>0.04</v>
-      </c>
-      <c r="AMA6">
-        <v>0.04</v>
-      </c>
-      <c r="AMB6">
-        <v>0.04</v>
-      </c>
-      <c r="AMC6">
-        <v>0.04</v>
-      </c>
-      <c r="AMD6">
-        <v>0.04</v>
-      </c>
-      <c r="AME6">
-        <v>0.04</v>
-      </c>
-      <c r="AMF6">
-        <v>0.04</v>
-      </c>
-      <c r="AMG6">
-        <v>0.04</v>
-      </c>
-      <c r="AMH6">
-        <v>0.04</v>
-      </c>
-      <c r="AMI6">
-        <v>0.04</v>
-      </c>
-      <c r="AMJ6">
-        <v>0.04</v>
-      </c>
-      <c r="AMK6">
-        <v>0.04</v>
-      </c>
-      <c r="AML6">
-        <v>0.04</v>
-      </c>
-      <c r="AMM6">
-        <v>0.04</v>
-      </c>
-      <c r="AMN6">
-        <v>0.04</v>
-      </c>
-      <c r="AMO6">
-        <v>0.04</v>
-      </c>
-      <c r="AMP6">
-        <v>0.04</v>
-      </c>
-      <c r="AMQ6">
-        <v>0.04</v>
-      </c>
-      <c r="AMR6">
-        <v>0.04</v>
-      </c>
-      <c r="AMS6">
-        <v>0.04</v>
-      </c>
-      <c r="AMT6">
-        <v>0.04</v>
-      </c>
-      <c r="AMU6">
-        <v>0.04</v>
-      </c>
-      <c r="AMV6">
-        <v>0.04</v>
-      </c>
-      <c r="AMW6">
-        <v>0.04</v>
-      </c>
-      <c r="AMX6">
-        <v>0.04</v>
-      </c>
-      <c r="AMY6">
-        <v>0.04</v>
-      </c>
-      <c r="AMZ6">
-        <v>0.04</v>
-      </c>
-      <c r="ANA6">
-        <v>0.04</v>
-      </c>
-      <c r="ANB6">
-        <v>0.04</v>
-      </c>
-      <c r="ANC6">
-        <v>0.04</v>
-      </c>
-      <c r="AND6">
-        <v>0.04</v>
-      </c>
-      <c r="ANE6">
-        <v>0.04</v>
-      </c>
-      <c r="ANF6">
-        <v>0.04</v>
-      </c>
-      <c r="ANG6">
-        <v>0.04</v>
-      </c>
-      <c r="ANH6">
-        <v>0.04</v>
-      </c>
-      <c r="ANI6">
-        <v>0.04</v>
-      </c>
-      <c r="ANJ6">
-        <v>0.04</v>
-      </c>
-      <c r="ANK6">
-        <v>0.04</v>
-      </c>
-      <c r="ANL6">
-        <v>0.04</v>
-      </c>
-      <c r="ANM6">
-        <v>0.04</v>
-      </c>
-      <c r="ANN6">
-        <v>0.04</v>
-      </c>
-      <c r="ANO6">
-        <v>0.04</v>
-      </c>
-      <c r="ANP6">
-        <v>0.04</v>
-      </c>
-      <c r="ANQ6">
-        <v>0.04</v>
-      </c>
-      <c r="ANR6">
-        <v>0.04</v>
-      </c>
-      <c r="ANS6">
-        <v>0.04</v>
-      </c>
-      <c r="ANT6">
-        <v>0.04</v>
-      </c>
-      <c r="ANU6">
-        <v>0.04</v>
-      </c>
-      <c r="ANV6">
-        <v>0.04</v>
-      </c>
-      <c r="ANW6">
-        <v>0.04</v>
-      </c>
-      <c r="ANX6">
-        <v>0.04</v>
-      </c>
-      <c r="ANY6">
-        <v>0.04</v>
-      </c>
-      <c r="ANZ6">
-        <v>0.04</v>
-      </c>
-      <c r="AOA6">
-        <v>0.04</v>
-      </c>
-      <c r="AOB6">
-        <v>0.04</v>
-      </c>
-      <c r="AOC6">
-        <v>0.04</v>
-      </c>
-      <c r="AOD6">
-        <v>0.04</v>
-      </c>
-      <c r="AOE6">
-        <v>0.04</v>
-      </c>
-      <c r="AOF6">
-        <v>0.04</v>
-      </c>
-      <c r="AOG6">
-        <v>0.04</v>
-      </c>
-      <c r="AOH6">
-        <v>0.04</v>
-      </c>
-      <c r="AOI6">
-        <v>0.04</v>
-      </c>
-      <c r="AOJ6">
-        <v>0.04</v>
-      </c>
-      <c r="AOK6">
-        <v>0.04</v>
-      </c>
-      <c r="AOL6">
-        <v>0.04</v>
-      </c>
-      <c r="AOM6">
-        <v>0.04</v>
-      </c>
-      <c r="AON6">
-        <v>0.04</v>
-      </c>
-      <c r="AOO6">
-        <v>0.04</v>
-      </c>
-      <c r="AOP6">
-        <v>0.04</v>
-      </c>
-      <c r="AOQ6">
-        <v>0.04</v>
-      </c>
-      <c r="AOR6">
-        <v>0.04</v>
-      </c>
-      <c r="AOS6">
-        <v>0.04</v>
-      </c>
-      <c r="AOT6">
-        <v>0.04</v>
-      </c>
-      <c r="AOU6">
-        <v>0.04</v>
-      </c>
-      <c r="AOV6">
-        <v>0.04</v>
-      </c>
-      <c r="AOW6">
-        <v>0.04</v>
-      </c>
-      <c r="AOX6">
-        <v>0.04</v>
-      </c>
-      <c r="AOY6">
-        <v>0.04</v>
-      </c>
-      <c r="AOZ6">
-        <v>0.04</v>
-      </c>
-      <c r="APA6">
-        <v>0.04</v>
-      </c>
-      <c r="APB6">
-        <v>0.04</v>
-      </c>
-      <c r="APC6">
-        <v>0.04</v>
-      </c>
-      <c r="APD6">
-        <v>0.04</v>
-      </c>
-      <c r="APE6">
-        <v>0.04</v>
-      </c>
-      <c r="APF6">
-        <v>0.04</v>
-      </c>
-      <c r="APG6">
-        <v>0.04</v>
-      </c>
-      <c r="APH6">
-        <v>0.04</v>
-      </c>
-      <c r="API6">
-        <v>0.04</v>
-      </c>
-      <c r="APJ6">
-        <v>0.04</v>
-      </c>
-      <c r="APK6">
-        <v>0.04</v>
-      </c>
-      <c r="APL6">
-        <v>0.04</v>
-      </c>
-      <c r="APM6">
-        <v>0.04</v>
-      </c>
-      <c r="APN6">
-        <v>0.04</v>
-      </c>
-      <c r="APO6">
-        <v>0.04</v>
-      </c>
-      <c r="APP6">
-        <v>0.04</v>
-      </c>
-      <c r="APQ6">
-        <v>0.04</v>
-      </c>
-      <c r="APR6">
-        <v>0.04</v>
-      </c>
-      <c r="APS6">
-        <v>0.04</v>
-      </c>
-      <c r="APT6">
-        <v>0.04</v>
-      </c>
-      <c r="APU6">
-        <v>0.04</v>
-      </c>
-      <c r="APV6">
-        <v>0.04</v>
-      </c>
-      <c r="APW6">
-        <v>0.04</v>
-      </c>
-      <c r="APX6">
-        <v>0.04</v>
-      </c>
-      <c r="APY6">
-        <v>0.04</v>
-      </c>
-      <c r="APZ6">
-        <v>0.04</v>
-      </c>
-      <c r="AQA6">
-        <v>0.04</v>
-      </c>
-      <c r="AQB6">
-        <v>0.04</v>
-      </c>
-      <c r="AQC6">
-        <v>0.04</v>
-      </c>
-      <c r="AQD6">
-        <v>0.04</v>
-      </c>
-      <c r="AQE6">
-        <v>0.04</v>
-      </c>
-      <c r="AQF6">
-        <v>0.04</v>
-      </c>
-      <c r="AQG6">
-        <v>0.04</v>
-      </c>
-      <c r="AQH6">
-        <v>0.04</v>
-      </c>
-      <c r="AQI6">
-        <v>0.04</v>
-      </c>
-      <c r="AQJ6">
-        <v>0.04</v>
-      </c>
-      <c r="AQK6">
-        <v>0.04</v>
-      </c>
-      <c r="AQL6">
-        <v>0.04</v>
-      </c>
-      <c r="AQM6">
-        <v>0.04</v>
-      </c>
-      <c r="AQN6">
-        <v>0.04</v>
-      </c>
-      <c r="AQO6">
-        <v>0.04</v>
-      </c>
-      <c r="AQP6">
-        <v>0.04</v>
-      </c>
-      <c r="AQQ6">
-        <v>0.04</v>
-      </c>
-      <c r="AQR6">
-        <v>0.04</v>
-      </c>
-      <c r="AQS6">
-        <v>0.04</v>
-      </c>
-      <c r="AQT6">
-        <v>0.04</v>
-      </c>
-      <c r="AQU6">
-        <v>0.04</v>
-      </c>
-      <c r="AQV6">
-        <v>0.04</v>
-      </c>
-      <c r="AQW6">
-        <v>0.04</v>
-      </c>
-      <c r="AQX6">
-        <v>0.04</v>
-      </c>
-      <c r="AQY6">
-        <v>0.04</v>
-      </c>
-      <c r="AQZ6">
-        <v>0.04</v>
-      </c>
-      <c r="ARA6">
-        <v>0.04</v>
-      </c>
-      <c r="ARB6">
-        <v>0.04</v>
-      </c>
-      <c r="ARC6">
-        <v>0.04</v>
-      </c>
-      <c r="ARD6">
-        <v>0.04</v>
-      </c>
-      <c r="ARE6">
-        <v>0.04</v>
-      </c>
-      <c r="ARF6">
-        <v>0.04</v>
-      </c>
-      <c r="ARG6">
-        <v>0.04</v>
-      </c>
-      <c r="ARH6">
-        <v>0.04</v>
-      </c>
-      <c r="ARI6">
-        <v>0.04</v>
-      </c>
-      <c r="ARJ6">
-        <v>0.04</v>
-      </c>
-      <c r="ARK6">
-        <v>0.04</v>
-      </c>
-      <c r="ARL6">
-        <v>0.04</v>
-      </c>
-      <c r="ARM6">
-        <v>0.04</v>
-      </c>
-      <c r="ARN6">
-        <v>0.04</v>
-      </c>
-      <c r="ARO6">
-        <v>0.04</v>
-      </c>
-      <c r="ARP6">
-        <v>0.04</v>
-      </c>
-      <c r="ARQ6">
-        <v>0.04</v>
-      </c>
-      <c r="ARR6">
-        <v>0.04</v>
-      </c>
-      <c r="ARS6">
-        <v>0.04</v>
-      </c>
-      <c r="ART6">
-        <v>0.04</v>
-      </c>
-      <c r="ARU6">
-        <v>0.04</v>
-      </c>
-      <c r="ARV6">
-        <v>0.04</v>
-      </c>
-      <c r="ARW6">
-        <v>0.04</v>
-      </c>
-      <c r="ARX6">
-        <v>0.04</v>
-      </c>
-      <c r="ARY6">
-        <v>0.04</v>
-      </c>
-      <c r="ARZ6">
-        <v>0.04</v>
-      </c>
-      <c r="ASA6">
-        <v>0.04</v>
-      </c>
-      <c r="ASB6">
-        <v>0.04</v>
-      </c>
-      <c r="ASC6">
-        <v>0.04</v>
-      </c>
-      <c r="ASD6">
-        <v>0.04</v>
-      </c>
-      <c r="ASE6">
-        <v>0.04</v>
-      </c>
-      <c r="ASF6">
-        <v>0.04</v>
-      </c>
-      <c r="ASG6">
-        <v>0.04</v>
-      </c>
-      <c r="ASH6">
-        <v>0.04</v>
-      </c>
-      <c r="ASI6">
-        <v>0.04</v>
-      </c>
-      <c r="ASJ6">
-        <v>0.04</v>
-      </c>
-      <c r="ASK6">
-        <v>0.04</v>
-      </c>
-      <c r="ASL6">
-        <v>0.04</v>
-      </c>
-      <c r="ASM6">
-        <v>0.04</v>
-      </c>
-      <c r="ASN6">
-        <v>0.04</v>
-      </c>
-      <c r="ASO6">
-        <v>0.04</v>
-      </c>
-      <c r="ASP6">
-        <v>0.04</v>
-      </c>
-      <c r="ASQ6">
-        <v>0.04</v>
-      </c>
-      <c r="ASR6">
-        <v>0.04</v>
-      </c>
-      <c r="ASS6">
-        <v>0.04</v>
-      </c>
-      <c r="AST6">
-        <v>0.04</v>
-      </c>
-      <c r="ASU6">
-        <v>0.04</v>
-      </c>
-      <c r="ASV6">
-        <v>0.04</v>
-      </c>
-      <c r="ASW6">
-        <v>0.04</v>
-      </c>
-      <c r="ASX6">
-        <v>0.04</v>
-      </c>
-      <c r="ASY6">
-        <v>0.04</v>
-      </c>
-      <c r="ASZ6">
-        <v>0.04</v>
-      </c>
-      <c r="ATA6">
-        <v>0.04</v>
-      </c>
-      <c r="ATB6">
-        <v>0.04</v>
-      </c>
-      <c r="ATC6">
-        <v>0.04</v>
-      </c>
-      <c r="ATD6">
-        <v>0.04</v>
-      </c>
-      <c r="ATE6">
-        <v>0.04</v>
+        <v>5.5E-2</v>
+      </c>
+      <c r="BJ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="BK6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="BL6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="BM6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="BN6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="BO6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="BP6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="BQ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="BR6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="BS6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="BT6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="BU6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="BV6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="BW6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="BX6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="BY6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="BZ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="CA6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="CB6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="CC6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="CD6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="CE6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="CF6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="CG6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="CH6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="CI6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="CJ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="CK6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="CL6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="CM6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="CN6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="CO6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="CP6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="CQ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="CR6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="CS6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="CT6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="CU6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="CV6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="CW6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="CX6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="CY6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="CZ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="DA6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="DB6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="DC6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="DD6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="DE6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="DF6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="DG6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="DH6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="DI6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="DJ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="DK6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="DL6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="DM6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="DN6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="DO6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="DP6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="DQ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="DR6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="DS6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="DT6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="DU6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="DV6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="DW6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="DX6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="DY6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="DZ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="EA6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="EB6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="EC6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ED6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="EE6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="EF6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="EG6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="EH6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="EI6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="EJ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="EK6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="EL6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="EM6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="EN6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="EO6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="EP6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="EQ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ER6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ES6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ET6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="EU6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="EV6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="EW6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="EX6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="EY6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="EZ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="FA6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="FB6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="FC6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="FD6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="FE6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="FF6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="FG6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="FH6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="FI6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="FJ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="FK6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="FL6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="FM6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="FN6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="FO6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="FP6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="FQ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="FR6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="FS6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="FT6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="FU6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="FV6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="FW6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="FX6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="FY6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="FZ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="GA6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="GB6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="GC6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="GD6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="GE6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="GF6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="GG6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="GH6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="GI6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="GJ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="GK6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="GL6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="GM6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="GN6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="GO6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="GP6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="GQ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="GR6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="GS6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="GT6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="GU6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="GV6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="GW6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="GX6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="GY6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="GZ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="HA6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="HB6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="HC6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="HD6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="HE6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="HF6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="HG6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="HH6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="HI6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="HJ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="HK6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="HL6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="HM6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="HN6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="HO6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="HP6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="HQ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="HR6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="HS6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="HT6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="HU6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="HV6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="HW6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="HX6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="HY6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="HZ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="IA6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="IB6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="IC6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ID6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="IE6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="IF6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="IG6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="IH6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="II6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="IJ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="IK6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="IL6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="IM6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="IN6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="IO6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="IP6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="IQ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="IR6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="IS6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="IT6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="IU6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="IV6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="IW6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="IX6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="IY6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="IZ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="JA6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="JB6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="JC6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="JD6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="JE6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="JF6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="JG6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="JH6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="JI6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="JJ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="JK6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="JL6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="JM6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="JN6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="JO6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="JP6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="JQ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="JR6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="JS6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="JT6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="JU6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="JV6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="JW6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="JX6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="JY6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="JZ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="KA6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="KB6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="KC6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="KD6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="KE6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="KF6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="KG6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="KH6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="KI6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="KJ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="KK6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="KL6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="KM6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="KN6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="KO6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="KP6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="KQ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="KR6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="KS6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="KT6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="KU6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="KV6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="KW6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="KX6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="KY6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="KZ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="LA6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="LB6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="LC6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="LD6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="LE6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="LF6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="LG6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="LH6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="LI6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="LJ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="LK6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="LL6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="LM6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="LN6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="LO6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="LP6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="LQ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="LR6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="LS6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="LT6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="LU6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="LV6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="LW6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="LX6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="LY6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="LZ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="MA6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="MB6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="MC6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="MD6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ME6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="MF6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="MG6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="MH6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="MI6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="MJ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="MK6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ML6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="MM6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="MN6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="MO6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="MP6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="MQ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="MR6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="MS6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="MT6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="MU6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="MV6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="MW6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="MX6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="MY6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="MZ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="NA6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="NB6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="NC6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ND6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="NE6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="NF6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="NG6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="NH6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="NI6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="NJ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="NK6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="NL6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="NM6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="NN6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="NO6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="NP6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="NQ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="NR6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="NS6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="NT6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="NU6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="NV6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="NW6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="NX6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="NY6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="NZ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="OA6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="OB6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="OC6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="OD6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="OE6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="OF6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="OG6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="OH6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="OI6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="OJ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="OK6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="OL6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="OM6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ON6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="OO6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="OP6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="OQ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="OR6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="OS6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="OT6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="OU6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="OV6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="OW6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="OX6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="OY6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="OZ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="PA6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="PB6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="PC6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="PD6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="PE6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="PF6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="PG6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="PH6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="PI6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="PJ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="PK6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="PL6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="PM6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="PN6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="PO6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="PP6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="PQ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="PR6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="PS6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="PT6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="PU6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="PV6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="PW6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="PX6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="PY6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="PZ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="QA6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="QB6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="QC6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="QD6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="QE6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="QF6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="QG6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="QH6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="QI6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="QJ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="QK6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="QL6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="QM6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="QN6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="QO6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="QP6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="QQ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="QR6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="QS6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="QT6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="QU6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="QV6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="QW6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="QX6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="QY6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="QZ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="RA6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="RB6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="RC6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="RD6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="RE6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="RF6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="RG6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="RH6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="RI6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="RJ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="RK6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="RL6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="RM6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="RN6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="RO6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="RP6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="RQ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="RR6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="RS6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="RT6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="RU6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="RV6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="RW6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="RX6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="RY6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="RZ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="SA6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="SB6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="SC6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="SD6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="SE6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="SF6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="SG6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="SH6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="SI6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="SJ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="SK6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="SL6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="SM6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="SN6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="SO6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="SP6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="SQ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="SR6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="SS6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ST6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="SU6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="SV6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="SW6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="SX6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="SY6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="SZ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="TA6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="TB6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="TC6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="TD6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="TE6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="TF6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="TG6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="TH6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="TI6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="TJ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="TK6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="TL6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="TM6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="TN6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="TO6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="TP6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="TQ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="TR6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="TS6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="TT6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="TU6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="TV6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="TW6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="TX6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="TY6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="TZ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="UA6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="UB6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="UC6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="UD6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="UE6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="UF6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="UG6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="UH6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="UI6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="UJ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="UK6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="UL6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="UM6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="UN6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="UO6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="UP6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="UQ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="UR6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="US6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="UT6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="UU6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="UV6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="UW6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="UX6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="UY6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="UZ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="VA6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="VB6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="VC6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="VD6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="VE6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="VF6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="VG6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="VH6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="VI6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="VJ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="VK6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="VL6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="VM6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="VN6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="VO6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="VP6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="VQ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="VR6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="VS6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="VT6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="VU6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="VV6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="VW6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="VX6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="VY6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="VZ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="WA6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="WB6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="WC6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="WD6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="WE6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="WF6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="WG6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="WH6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="WI6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="WJ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="WK6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="WL6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="WM6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="WN6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="WO6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="WP6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="WQ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="WR6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="WS6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="WT6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="WU6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="WV6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="WW6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="WX6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="WY6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="WZ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="XA6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="XB6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="XC6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="XD6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="XE6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="XF6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="XG6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="XH6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="XI6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="XJ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="XK6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="XL6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="XM6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="XN6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="XO6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="XP6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="XQ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="XR6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="XS6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="XT6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="XU6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="XV6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="XW6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="XX6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="XY6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="XZ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="YA6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="YB6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="YC6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="YD6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="YE6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="YF6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="YG6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="YH6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="YI6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="YJ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="YK6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="YL6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="YM6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="YN6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="YO6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="YP6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="YQ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="YR6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="YS6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="YT6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="YU6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="YV6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="YW6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="YX6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="YY6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="YZ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ZA6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ZB6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ZC6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ZD6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ZE6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ZF6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ZG6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ZH6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ZI6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ZJ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ZK6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ZL6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ZM6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ZN6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ZO6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ZP6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ZQ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ZR6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ZS6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ZT6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ZU6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ZV6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ZW6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ZX6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ZY6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ZZ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AAA6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AAB6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AAC6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AAD6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AAE6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AAF6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AAG6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AAH6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AAI6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AAJ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AAK6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AAL6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AAM6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AAN6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AAO6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AAP6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AAQ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AAR6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AAS6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AAT6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AAU6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AAV6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AAW6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AAX6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AAY6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AAZ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ABA6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ABB6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ABC6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ABD6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ABE6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ABF6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ABG6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ABH6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ABI6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ABJ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ABK6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ABL6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ABM6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ABN6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ABO6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ABP6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ABQ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ABR6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ABS6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ABT6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ABU6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ABV6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ABW6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ABX6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ABY6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ABZ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ACA6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ACB6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ACC6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ACD6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ACE6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ACF6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ACG6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ACH6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ACI6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ACJ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ACK6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ACL6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ACM6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ACN6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ACO6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ACP6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ACQ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ACR6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ACS6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ACT6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ACU6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ACV6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ACW6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ACX6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ACY6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ACZ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ADA6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ADB6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ADC6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ADD6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ADE6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ADF6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ADG6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ADH6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ADI6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ADJ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ADK6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ADL6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ADM6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ADN6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ADO6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ADP6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ADQ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ADR6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ADS6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ADT6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ADU6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ADV6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ADW6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ADX6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ADY6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ADZ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AEA6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AEB6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AEC6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AED6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AEE6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AEF6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AEG6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AEH6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AEI6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AEJ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AEK6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AEL6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AEM6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AEN6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AEO6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AEP6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AEQ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AER6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AES6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AET6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AEU6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AEV6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AEW6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AEX6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AEY6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AEZ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AFA6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AFB6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AFC6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AFD6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AFE6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AFF6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AFG6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AFH6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AFI6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AFJ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AFK6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AFL6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AFM6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AFN6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AFO6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AFP6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AFQ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AFR6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AFS6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AFT6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AFU6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AFV6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AFW6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AFX6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AFY6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AFZ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AGA6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AGB6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AGC6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AGD6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AGE6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AGF6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AGG6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AGH6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AGI6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AGJ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AGK6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AGL6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AGM6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AGN6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AGO6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AGP6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AGQ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AGR6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AGS6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AGT6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AGU6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AGV6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AGW6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AGX6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AGY6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AGZ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AHA6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AHB6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AHC6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AHD6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AHE6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AHF6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AHG6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AHH6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AHI6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AHJ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AHK6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AHL6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AHM6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AHN6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AHO6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AHP6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AHQ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AHR6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AHS6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AHT6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AHU6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AHV6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AHW6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AHX6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AHY6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AHZ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AIA6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AIB6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AIC6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AID6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AIE6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AIF6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AIG6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AIH6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AII6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AIJ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AIK6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AIL6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AIM6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AIN6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AIO6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AIP6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AIQ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AIR6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AIS6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AIT6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AIU6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AIV6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AIW6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AIX6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AIY6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AIZ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AJA6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AJB6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AJC6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AJD6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AJE6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AJF6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AJG6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AJH6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AJI6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AJJ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AJK6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AJL6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AJM6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AJN6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AJO6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AJP6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AJQ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AJR6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AJS6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AJT6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AJU6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AJV6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AJW6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AJX6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AJY6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AJZ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AKA6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AKB6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AKC6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AKD6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AKE6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AKF6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AKG6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AKH6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AKI6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AKJ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AKK6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AKL6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AKM6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AKN6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AKO6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AKP6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AKQ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AKR6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AKS6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AKT6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AKU6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AKV6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AKW6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AKX6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AKY6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AKZ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ALA6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ALB6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ALC6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ALD6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ALE6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ALF6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ALG6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ALH6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ALI6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ALJ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ALK6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ALL6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ALM6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ALN6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ALO6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ALP6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ALQ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ALR6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ALS6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ALT6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ALU6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ALV6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ALW6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ALX6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ALY6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ALZ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AMA6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AMB6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AMC6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AMD6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AME6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AMF6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AMG6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AMH6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AMI6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AMJ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AMK6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AML6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AMM6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AMN6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AMO6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AMP6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AMQ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AMR6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AMS6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AMT6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AMU6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AMV6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AMW6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AMX6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AMY6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AMZ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ANA6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ANB6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ANC6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AND6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ANE6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ANF6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ANG6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ANH6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ANI6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ANJ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ANK6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ANL6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ANM6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ANN6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ANO6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ANP6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ANQ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ANR6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ANS6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ANT6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ANU6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ANV6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ANW6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ANX6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ANY6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ANZ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AOA6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AOB6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AOC6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AOD6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AOE6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AOF6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AOG6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AOH6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AOI6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AOJ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AOK6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AOL6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AOM6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AON6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AOO6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AOP6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AOQ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AOR6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AOS6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AOT6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AOU6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AOV6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AOW6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AOX6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AOY6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AOZ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="APA6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="APB6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="APC6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="APD6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="APE6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="APF6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="APG6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="APH6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="API6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="APJ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="APK6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="APL6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="APM6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="APN6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="APO6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="APP6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="APQ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="APR6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="APS6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="APT6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="APU6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="APV6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="APW6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="APX6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="APY6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="APZ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AQA6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AQB6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AQC6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AQD6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AQE6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AQF6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AQG6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AQH6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AQI6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AQJ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AQK6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AQL6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AQM6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AQN6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AQO6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AQP6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AQQ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AQR6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AQS6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AQT6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AQU6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AQV6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AQW6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AQX6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="AQY6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="AQZ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ARA6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ARB6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ARC6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ARD6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ARE6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ARF6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ARG6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ARH6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ARI6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ARJ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ARK6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ARL6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ARM6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ARN6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ARO6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ARP6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ARQ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ARR6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ARS6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ART6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ARU6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ARV6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ARW6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ARX6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ARY6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ARZ6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ASA6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ASB6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ASC6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ASD6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ASE6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ASF6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ASG6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ASH6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ASI6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ASJ6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ASK6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ASL6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ASM6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ASN6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ASO6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ASP6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ASQ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ASR6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ASS6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AST6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ASU6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ASV6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ASW6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ASX6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ASY6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ASZ6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ATA6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ATB6" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="ATC6" s="7">
+        <v>1.8450000000000001E-2</v>
+      </c>
+      <c r="ATD6" s="7">
+        <v>4.48E-2</v>
+      </c>
+      <c r="ATE6" s="7">
+        <v>5.5E-2</v>
       </c>
     </row>
   </sheetData>
@@ -15690,7 +15693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31329995-D292-4CAB-97CD-6E53F24E6735}">
   <dimension ref="A1:DZ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -16889,1179 +16892,1179 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:130" s="5" customFormat="1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:130" s="4" customFormat="1">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="D5" s="5">
-        <v>5.5E-2</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E5" s="4">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>0.06</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>6.3E-2</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>6.3E-2</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="4">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="4">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5" s="4">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z5" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="4">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AC5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AD5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AE5" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AF5" s="4">
         <v>0.08</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AG5" s="4">
         <v>0.08</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AH5" s="4">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="AI5" s="5">
+      <c r="AI5" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="AJ5" s="5">
+      <c r="AJ5" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AK5" s="4">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AL5" s="4">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="AM5" s="5">
+      <c r="AM5" s="4">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="AN5" s="5">
+      <c r="AN5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="AO5" s="5">
+      <c r="AO5" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="AP5" s="5">
+      <c r="AP5" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="AQ5" s="5">
+      <c r="AQ5" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AR5" s="5">
+      <c r="AR5" s="4">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="AS5" s="5">
+      <c r="AS5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="AT5" s="5">
+      <c r="AT5" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="AU5" s="5">
+      <c r="AU5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="AV5" s="5">
+      <c r="AV5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="AW5" s="5">
+      <c r="AW5" s="4">
         <v>0.08</v>
       </c>
-      <c r="AX5" s="5">
+      <c r="AX5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="AY5" s="5">
+      <c r="AY5" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="AZ5" s="5">
+      <c r="AZ5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="BA5" s="5">
+      <c r="BA5" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="BB5" s="5">
+      <c r="BB5" s="4">
         <v>0.08</v>
       </c>
-      <c r="BC5" s="5">
+      <c r="BC5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="BD5" s="5">
+      <c r="BD5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="BE5" s="5">
+      <c r="BE5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="BF5" s="5">
+      <c r="BF5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="BG5" s="5">
+      <c r="BG5" s="4">
         <v>0.08</v>
       </c>
-      <c r="BH5" s="5">
+      <c r="BH5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="BI5" s="5">
+      <c r="BI5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="BJ5" s="5">
+      <c r="BJ5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="BK5" s="5">
+      <c r="BK5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="BL5" s="5">
+      <c r="BL5" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="BM5" s="5">
+      <c r="BM5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="BN5" s="5">
+      <c r="BN5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="BO5" s="5">
+      <c r="BO5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="BP5" s="5">
+      <c r="BP5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="BQ5" s="5">
+      <c r="BQ5" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="BR5" s="5">
+      <c r="BR5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="BS5" s="5">
+      <c r="BS5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="BT5" s="5">
+      <c r="BT5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="BU5" s="5">
+      <c r="BU5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="BV5" s="5">
+      <c r="BV5" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="BW5" s="5">
+      <c r="BW5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="BX5" s="5">
+      <c r="BX5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="BY5" s="5">
+      <c r="BY5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="BZ5" s="5">
+      <c r="BZ5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CA5" s="5">
+      <c r="CA5" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="CB5" s="5">
+      <c r="CB5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CC5" s="5">
+      <c r="CC5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CD5" s="5">
+      <c r="CD5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CE5" s="5">
+      <c r="CE5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CF5" s="5">
+      <c r="CF5" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="CG5" s="5">
+      <c r="CG5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CH5" s="5">
+      <c r="CH5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CI5" s="5">
+      <c r="CI5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CJ5" s="5">
+      <c r="CJ5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CK5" s="5">
+      <c r="CK5" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="CL5" s="5">
+      <c r="CL5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CM5" s="5">
+      <c r="CM5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CN5" s="5">
+      <c r="CN5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CO5" s="5">
+      <c r="CO5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CP5" s="5">
+      <c r="CP5" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="CQ5" s="5">
+      <c r="CQ5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CR5" s="5">
+      <c r="CR5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CS5" s="5">
+      <c r="CS5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CT5" s="5">
+      <c r="CT5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CU5" s="5">
+      <c r="CU5" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="CV5" s="5">
+      <c r="CV5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CW5" s="5">
+      <c r="CW5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CX5" s="5">
+      <c r="CX5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CY5" s="5">
+      <c r="CY5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="CZ5" s="5">
+      <c r="CZ5" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="DA5" s="5">
+      <c r="DA5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DB5" s="5">
+      <c r="DB5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DC5" s="5">
+      <c r="DC5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DD5" s="5">
+      <c r="DD5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DE5" s="5">
+      <c r="DE5" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="DF5" s="5">
+      <c r="DF5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DG5" s="5">
+      <c r="DG5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DH5" s="5">
+      <c r="DH5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DI5" s="5">
+      <c r="DI5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DJ5" s="5">
+      <c r="DJ5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DK5" s="5">
+      <c r="DK5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DL5" s="5">
+      <c r="DL5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DM5" s="5">
+      <c r="DM5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DN5" s="5">
+      <c r="DN5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DO5" s="5">
+      <c r="DO5" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="DP5" s="5">
+      <c r="DP5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DQ5" s="5">
+      <c r="DQ5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DR5" s="5">
+      <c r="DR5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DS5" s="5">
+      <c r="DS5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DT5" s="5">
+      <c r="DT5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DU5" s="5">
+      <c r="DU5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DV5" s="5">
+      <c r="DV5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DW5" s="5">
+      <c r="DW5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DX5" s="5">
+      <c r="DX5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DY5" s="5">
+      <c r="DY5" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="DZ5" s="5">
+      <c r="DZ5" s="4">
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:130" s="5" customFormat="1">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:130" s="4" customFormat="1">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.17100000000000001</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.114</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>0.05</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>3.9E-2</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>6.3E-2</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>0.05</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <v>4.7E-2</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="4">
         <v>3.9E-2</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="4">
         <v>0.05</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="Z6" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AA6" s="4">
         <v>3.9E-2</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AB6" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AC6" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AD6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AE6" s="5">
+      <c r="AE6" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AF6" s="5">
+      <c r="AF6" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="AG6" s="5">
+      <c r="AG6" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="AH6" s="5">
+      <c r="AH6" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="AI6" s="5">
+      <c r="AI6" s="4">
         <v>0.04</v>
       </c>
-      <c r="AJ6" s="5">
+      <c r="AJ6" s="4">
         <v>3.9E-2</v>
       </c>
-      <c r="AK6" s="5">
+      <c r="AK6" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AL6" s="5">
+      <c r="AL6" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="AM6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="AN6" s="5">
+      <c r="AM6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AN6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AO6" s="5">
+      <c r="AO6" s="4">
         <v>0.04</v>
       </c>
-      <c r="AP6" s="5">
+      <c r="AP6" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="AQ6" s="5">
+      <c r="AQ6" s="4">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="AR6" s="5">
+      <c r="AR6" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AS6" s="5">
+      <c r="AS6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AT6" s="5">
+      <c r="AT6" s="4">
         <v>3.9E-2</v>
       </c>
-      <c r="AU6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="AV6" s="5">
+      <c r="AU6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AV6" s="4">
         <v>3.9E-2</v>
       </c>
-      <c r="AW6" s="5">
+      <c r="AW6" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="AX6" s="5">
+      <c r="AX6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AY6" s="5">
+      <c r="AY6" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AZ6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="BA6" s="5">
+      <c r="AZ6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="BA6" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="BB6" s="5">
+      <c r="BB6" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="BC6" s="5">
+      <c r="BC6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="BD6" s="5">
+      <c r="BD6" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="BE6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="BF6" s="5">
+      <c r="BE6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="BF6" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="BG6" s="5">
+      <c r="BG6" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="BH6" s="5">
+      <c r="BH6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="BI6" s="5">
+      <c r="BI6" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="BJ6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="BK6" s="5">
+      <c r="BJ6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="BK6" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="BL6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="BM6" s="5">
+      <c r="BL6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="BM6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="BN6" s="5">
+      <c r="BN6" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="BO6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="BP6" s="5">
+      <c r="BO6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="BP6" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="BQ6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="BR6" s="5">
+      <c r="BQ6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="BR6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="BS6" s="5">
+      <c r="BS6" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="BT6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="BU6" s="5">
+      <c r="BT6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="BU6" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="BV6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="BW6" s="5">
+      <c r="BV6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="BW6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="BX6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="BY6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="BZ6" s="5">
+      <c r="BX6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="BY6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="BZ6" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="CA6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="CB6" s="5">
+      <c r="CA6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="CB6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="CC6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="CD6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="CE6" s="5">
+      <c r="CC6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="CD6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="CE6" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="CF6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="CG6" s="5">
+      <c r="CF6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="CG6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="CH6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="CI6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="CJ6" s="5">
+      <c r="CH6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="CI6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="CJ6" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="CK6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="CL6" s="5">
+      <c r="CK6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="CL6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="CM6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="CN6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="CO6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="CP6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="CQ6" s="5">
+      <c r="CM6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="CN6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="CO6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="CP6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="CQ6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="CR6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="CS6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="CT6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="CU6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="CV6" s="5">
+      <c r="CR6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="CS6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="CT6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="CU6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="CV6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="CW6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="CX6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="CY6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="CZ6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DA6" s="5">
+      <c r="CW6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="CX6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="CY6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="CZ6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DA6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="DB6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DC6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DD6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DE6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DF6" s="5">
+      <c r="DB6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DC6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DD6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DE6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DF6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="DG6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DH6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DI6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DJ6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DK6" s="5">
+      <c r="DG6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DH6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DI6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DJ6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DK6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="DL6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DM6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DN6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DO6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DP6" s="5">
+      <c r="DL6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DM6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DN6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DO6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DP6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="DQ6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DR6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DS6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DT6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DU6" s="5">
+      <c r="DQ6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DR6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DS6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DT6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DU6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="DV6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DW6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DX6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DY6" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="DZ6" s="5">
+      <c r="DV6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DW6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DX6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DY6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="DZ6" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:130" s="5" customFormat="1">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:130" s="4" customFormat="1">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.40400000000000003</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.379</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.36699999999999999</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.36</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>0.35499999999999998</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>0.35199999999999998</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>0.35</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>0.34799999999999998</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>0.34599999999999997</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>0.34499999999999997</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>0.34399999999999997</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>0.34300000000000003</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>0.34300000000000003</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="4">
         <v>0.34200000000000003</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <v>0.34200000000000003</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4">
         <v>0.34100000000000003</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="4">
         <v>0.34100000000000003</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="4">
         <v>0.34</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="4">
         <v>0.34</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="4">
         <v>0.33900000000000002</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="4">
         <v>0.33800000000000002</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="4">
         <v>0.33700000000000002</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="4">
         <v>0.33600000000000002</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="4">
         <v>0.33600000000000002</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Z7" s="4">
         <v>0.33500000000000002</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="4">
         <v>0.33400000000000002</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AB7" s="4">
         <v>0.33400000000000002</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AC7" s="4">
         <v>0.33300000000000002</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AD7" s="4">
         <v>0.33200000000000002</v>
       </c>
-      <c r="AE7" s="5">
+      <c r="AE7" s="4">
         <v>0.33200000000000002</v>
       </c>
-      <c r="AF7" s="5">
+      <c r="AF7" s="4">
         <v>0.33200000000000002</v>
       </c>
-      <c r="AG7" s="5">
+      <c r="AG7" s="4">
         <v>0.33100000000000002</v>
       </c>
-      <c r="AH7" s="5">
+      <c r="AH7" s="4">
         <v>0.33100000000000002</v>
       </c>
-      <c r="AI7" s="5">
+      <c r="AI7" s="4">
         <v>0.33</v>
       </c>
-      <c r="AJ7" s="5">
+      <c r="AJ7" s="4">
         <v>0.33</v>
       </c>
-      <c r="AK7" s="5">
+      <c r="AK7" s="4">
         <v>0.33</v>
       </c>
-      <c r="AL7" s="5">
+      <c r="AL7" s="4">
         <v>0.32900000000000001</v>
       </c>
-      <c r="AM7" s="5">
+      <c r="AM7" s="4">
         <v>0.32900000000000001</v>
       </c>
-      <c r="AN7" s="5">
+      <c r="AN7" s="4">
         <v>0.32900000000000001</v>
       </c>
-      <c r="AO7" s="5">
+      <c r="AO7" s="4">
         <v>0.32800000000000001</v>
       </c>
-      <c r="AP7" s="5">
+      <c r="AP7" s="4">
         <v>0.32700000000000001</v>
       </c>
-      <c r="AQ7" s="5">
+      <c r="AQ7" s="4">
         <v>0.32600000000000001</v>
       </c>
-      <c r="AR7" s="5">
+      <c r="AR7" s="4">
         <v>0.32500000000000001</v>
       </c>
-      <c r="AS7" s="5">
+      <c r="AS7" s="4">
         <v>0.32500000000000001</v>
       </c>
-      <c r="AT7" s="5">
+      <c r="AT7" s="4">
         <v>0.32400000000000001</v>
       </c>
-      <c r="AU7" s="5">
+      <c r="AU7" s="4">
         <v>0.32400000000000001</v>
       </c>
-      <c r="AV7" s="5">
+      <c r="AV7" s="4">
         <v>0.32300000000000001</v>
       </c>
-      <c r="AW7" s="5">
+      <c r="AW7" s="4">
         <v>0.32300000000000001</v>
       </c>
-      <c r="AX7" s="5">
+      <c r="AX7" s="4">
         <v>0.32300000000000001</v>
       </c>
-      <c r="AY7" s="5">
+      <c r="AY7" s="4">
         <v>0.32200000000000001</v>
       </c>
-      <c r="AZ7" s="5">
+      <c r="AZ7" s="4">
         <v>0.32200000000000001</v>
       </c>
-      <c r="BA7" s="5">
+      <c r="BA7" s="4">
         <v>0.32200000000000001</v>
       </c>
-      <c r="BB7" s="5">
+      <c r="BB7" s="4">
         <v>0.32200000000000001</v>
       </c>
-      <c r="BC7" s="5">
+      <c r="BC7" s="4">
         <v>0.32200000000000001</v>
       </c>
-      <c r="BD7" s="5">
+      <c r="BD7" s="4">
         <v>0.32200000000000001</v>
       </c>
-      <c r="BE7" s="5">
+      <c r="BE7" s="4">
         <v>0.32100000000000001</v>
       </c>
-      <c r="BF7" s="5">
+      <c r="BF7" s="4">
         <v>0.32100000000000001</v>
       </c>
-      <c r="BG7" s="5">
+      <c r="BG7" s="4">
         <v>0.32100000000000001</v>
       </c>
-      <c r="BH7" s="5">
+      <c r="BH7" s="4">
         <v>0.32100000000000001</v>
       </c>
-      <c r="BI7" s="5">
+      <c r="BI7" s="4">
         <v>0.32100000000000001</v>
       </c>
-      <c r="BJ7" s="5">
+      <c r="BJ7" s="4">
         <v>0.32100000000000001</v>
       </c>
-      <c r="BK7" s="5">
+      <c r="BK7" s="4">
         <v>0.32</v>
       </c>
-      <c r="BL7" s="5">
+      <c r="BL7" s="4">
         <v>0.32</v>
       </c>
-      <c r="BM7" s="5">
+      <c r="BM7" s="4">
         <v>0.32</v>
       </c>
-      <c r="BN7" s="5">
+      <c r="BN7" s="4">
         <v>0.32</v>
       </c>
-      <c r="BO7" s="5">
+      <c r="BO7" s="4">
         <v>0.32</v>
       </c>
-      <c r="BP7" s="5">
+      <c r="BP7" s="4">
         <v>0.32</v>
       </c>
-      <c r="BQ7" s="5">
+      <c r="BQ7" s="4">
         <v>0.32</v>
       </c>
-      <c r="BR7" s="5">
+      <c r="BR7" s="4">
         <v>0.32</v>
       </c>
-      <c r="BS7" s="5">
+      <c r="BS7" s="4">
         <v>0.32</v>
       </c>
-      <c r="BT7" s="5">
+      <c r="BT7" s="4">
         <v>0.32</v>
       </c>
-      <c r="BU7" s="5">
+      <c r="BU7" s="4">
         <v>0.32</v>
       </c>
-      <c r="BV7" s="5">
+      <c r="BV7" s="4">
         <v>0.32</v>
       </c>
-      <c r="BW7" s="5">
+      <c r="BW7" s="4">
         <v>0.32</v>
       </c>
-      <c r="BX7" s="5">
+      <c r="BX7" s="4">
         <v>0.32</v>
       </c>
-      <c r="BY7" s="5">
+      <c r="BY7" s="4">
         <v>0.32</v>
       </c>
-      <c r="BZ7" s="5">
+      <c r="BZ7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CA7" s="5">
+      <c r="CA7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CB7" s="5">
+      <c r="CB7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CC7" s="5">
+      <c r="CC7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CD7" s="5">
+      <c r="CD7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CE7" s="5">
+      <c r="CE7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CF7" s="5">
+      <c r="CF7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CG7" s="5">
+      <c r="CG7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CH7" s="5">
+      <c r="CH7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CI7" s="5">
+      <c r="CI7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CJ7" s="5">
+      <c r="CJ7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CK7" s="5">
+      <c r="CK7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CL7" s="5">
+      <c r="CL7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CM7" s="5">
+      <c r="CM7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CN7" s="5">
+      <c r="CN7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CO7" s="5">
+      <c r="CO7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CP7" s="5">
+      <c r="CP7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CQ7" s="5">
+      <c r="CQ7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CR7" s="5">
+      <c r="CR7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CS7" s="5">
+      <c r="CS7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CT7" s="5">
+      <c r="CT7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CU7" s="5">
+      <c r="CU7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CV7" s="5">
+      <c r="CV7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CW7" s="5">
+      <c r="CW7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CX7" s="5">
+      <c r="CX7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CY7" s="5">
+      <c r="CY7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="CZ7" s="5">
+      <c r="CZ7" s="4">
         <v>0.31900000000000001</v>
       </c>
-      <c r="DA7" s="5">
+      <c r="DA7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DB7" s="5">
+      <c r="DB7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DC7" s="5">
+      <c r="DC7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DD7" s="5">
+      <c r="DD7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DE7" s="5">
+      <c r="DE7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DF7" s="5">
+      <c r="DF7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DG7" s="5">
+      <c r="DG7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DH7" s="5">
+      <c r="DH7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DI7" s="5">
+      <c r="DI7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DJ7" s="5">
+      <c r="DJ7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DK7" s="5">
+      <c r="DK7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DL7" s="5">
+      <c r="DL7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DM7" s="5">
+      <c r="DM7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DN7" s="5">
+      <c r="DN7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DO7" s="5">
+      <c r="DO7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DP7" s="5">
+      <c r="DP7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DQ7" s="5">
+      <c r="DQ7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DR7" s="5">
+      <c r="DR7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DS7" s="5">
+      <c r="DS7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DT7" s="5">
+      <c r="DT7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DU7" s="5">
+      <c r="DU7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DV7" s="5">
+      <c r="DV7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DW7" s="5">
+      <c r="DW7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DX7" s="5">
+      <c r="DX7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DY7" s="5">
+      <c r="DY7" s="4">
         <v>0.318</v>
       </c>
-      <c r="DZ7" s="5">
+      <c r="DZ7" s="4">
         <v>0.318</v>
       </c>
     </row>
@@ -19654,137 +19657,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:131">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="4"/>
-      <c r="BO1" s="4"/>
-      <c r="BP1" s="4"/>
-      <c r="BQ1" s="4"/>
-      <c r="BR1" s="4"/>
-      <c r="BS1" s="4"/>
-      <c r="BT1" s="4"/>
-      <c r="BU1" s="4"/>
-      <c r="BV1" s="4"/>
-      <c r="BW1" s="4"/>
-      <c r="BX1" s="4"/>
-      <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
-      <c r="CA1" s="4"/>
-      <c r="CB1" s="4"/>
-      <c r="CC1" s="4"/>
-      <c r="CD1" s="4"/>
-      <c r="CE1" s="4"/>
-      <c r="CF1" s="4"/>
-      <c r="CG1" s="4"/>
-      <c r="CH1" s="4"/>
-      <c r="CI1" s="4"/>
-      <c r="CJ1" s="4"/>
-      <c r="CK1" s="4"/>
-      <c r="CL1" s="4"/>
-      <c r="CM1" s="4"/>
-      <c r="CN1" s="4"/>
-      <c r="CO1" s="4"/>
-      <c r="CP1" s="4"/>
-      <c r="CQ1" s="4"/>
-      <c r="CR1" s="4"/>
-      <c r="CS1" s="4"/>
-      <c r="CT1" s="4"/>
-      <c r="CU1" s="4"/>
-      <c r="CV1" s="4"/>
-      <c r="CW1" s="4"/>
-      <c r="CX1" s="4"/>
-      <c r="CY1" s="4"/>
-      <c r="CZ1" s="4"/>
-      <c r="DA1" s="4"/>
-      <c r="DB1" s="4"/>
-      <c r="DC1" s="4"/>
-      <c r="DD1" s="4"/>
-      <c r="DE1" s="4"/>
-      <c r="DF1" s="4"/>
-      <c r="DG1" s="4"/>
-      <c r="DH1" s="4"/>
-      <c r="DI1" s="4"/>
-      <c r="DJ1" s="4"/>
-      <c r="DK1" s="4"/>
-      <c r="DL1" s="4"/>
-      <c r="DM1" s="4"/>
-      <c r="DN1" s="4"/>
-      <c r="DO1" s="4"/>
-      <c r="DP1" s="4"/>
-      <c r="DQ1" s="4"/>
-      <c r="DR1" s="4"/>
-      <c r="DS1" s="4"/>
-      <c r="DT1" s="4"/>
-      <c r="DU1" s="4"/>
-      <c r="DV1" s="4"/>
-      <c r="DW1" s="4"/>
-      <c r="DX1" s="4"/>
-      <c r="DY1" s="4"/>
-      <c r="DZ1" s="4"/>
-      <c r="EA1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+      <c r="BM1" s="5"/>
+      <c r="BN1" s="5"/>
+      <c r="BO1" s="5"/>
+      <c r="BP1" s="5"/>
+      <c r="BQ1" s="5"/>
+      <c r="BR1" s="5"/>
+      <c r="BS1" s="5"/>
+      <c r="BT1" s="5"/>
+      <c r="BU1" s="5"/>
+      <c r="BV1" s="5"/>
+      <c r="BW1" s="5"/>
+      <c r="BX1" s="5"/>
+      <c r="BY1" s="5"/>
+      <c r="BZ1" s="5"/>
+      <c r="CA1" s="5"/>
+      <c r="CB1" s="5"/>
+      <c r="CC1" s="5"/>
+      <c r="CD1" s="5"/>
+      <c r="CE1" s="5"/>
+      <c r="CF1" s="5"/>
+      <c r="CG1" s="5"/>
+      <c r="CH1" s="5"/>
+      <c r="CI1" s="5"/>
+      <c r="CJ1" s="5"/>
+      <c r="CK1" s="5"/>
+      <c r="CL1" s="5"/>
+      <c r="CM1" s="5"/>
+      <c r="CN1" s="5"/>
+      <c r="CO1" s="5"/>
+      <c r="CP1" s="5"/>
+      <c r="CQ1" s="5"/>
+      <c r="CR1" s="5"/>
+      <c r="CS1" s="5"/>
+      <c r="CT1" s="5"/>
+      <c r="CU1" s="5"/>
+      <c r="CV1" s="5"/>
+      <c r="CW1" s="5"/>
+      <c r="CX1" s="5"/>
+      <c r="CY1" s="5"/>
+      <c r="CZ1" s="5"/>
+      <c r="DA1" s="5"/>
+      <c r="DB1" s="5"/>
+      <c r="DC1" s="5"/>
+      <c r="DD1" s="5"/>
+      <c r="DE1" s="5"/>
+      <c r="DF1" s="5"/>
+      <c r="DG1" s="5"/>
+      <c r="DH1" s="5"/>
+      <c r="DI1" s="5"/>
+      <c r="DJ1" s="5"/>
+      <c r="DK1" s="5"/>
+      <c r="DL1" s="5"/>
+      <c r="DM1" s="5"/>
+      <c r="DN1" s="5"/>
+      <c r="DO1" s="5"/>
+      <c r="DP1" s="5"/>
+      <c r="DQ1" s="5"/>
+      <c r="DR1" s="5"/>
+      <c r="DS1" s="5"/>
+      <c r="DT1" s="5"/>
+      <c r="DU1" s="5"/>
+      <c r="DV1" s="5"/>
+      <c r="DW1" s="5"/>
+      <c r="DX1" s="5"/>
+      <c r="DY1" s="5"/>
+      <c r="DZ1" s="5"/>
+      <c r="EA1" s="5"/>
     </row>
     <row r="2" spans="1:131">
       <c r="A2" t="s">
